--- a/templates/Module_4_Template.xlsx
+++ b/templates/Module_4_Template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilfreds\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\EyeSeeTea\excel-data-import-app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
-    <sheet name="Education_Costs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sourcetype" sheetId="4" r:id="rId3"/>
+    <sheet name="Cost per program" sheetId="2" r:id="rId2"/>
+    <sheet name="Specialist Costs" sheetId="4" r:id="rId3"/>
+    <sheet name="Lifelong Learning" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="dropdownlist">Finance!$AE$2:INDEX(Finance!$AE$2:$AE$250,MAX(Finance!$AD$2:$AD$250),1)</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="801">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -59,9 +60,6 @@
     <t>SN</t>
   </si>
   <si>
-    <t>Occupation</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -614,9 +612,6 @@
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Source Type</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -2324,12 +2319,6 @@
     <t>General Medical Practitioners</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>HWF Education and Training Programme</t>
-  </si>
-  <si>
     <t>Private</t>
   </si>
   <si>
@@ -2339,33 +2328,15 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Ministry of Education</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
-    <t xml:space="preserve"> Existence of national health workforce strategies and national institutional financing reforms that identify and commit adequate budgetary resources for transformative education</t>
-  </si>
-  <si>
-    <t>Total expenditure on health workforce education by education type</t>
-  </si>
-  <si>
     <t>Pre-service Training</t>
   </si>
   <si>
     <t>In-service training</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total expenditure on higher education (including for non-health sectors)</t>
-  </si>
-  <si>
-    <t>Total expenditure on health workforce education</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total expenditure on continuing professional development</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -2378,40 +2349,87 @@
     <t>Others</t>
   </si>
   <si>
-    <t>General Paediatricians Practitioner</t>
+    <t>Health Workforce Education Finance</t>
+  </si>
+  <si>
+    <t>Health Workforce Education Finance Source Type</t>
+  </si>
+  <si>
+    <t>PARTIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total expenditure on higher education (including for non-health sectors) (4-01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Total expenditure on health workforce pre-service education (4-02)</t>
+  </si>
+  <si>
+    <t>Existence of national health workforce strategies and national institutional financing reforms that identify and commit adequate budgetary resources for transformative education (4-04)</t>
+  </si>
+  <si>
+    <t>Health Workforce Education Finances</t>
+  </si>
+  <si>
+    <t>Tuition Fee by Student enrolled (4-03)</t>
+  </si>
+  <si>
+    <t>Public Expenditure on HWF education (4-05)</t>
+  </si>
+  <si>
+    <t>Private Expenditure on HWF education (4-05)</t>
+  </si>
+  <si>
+    <t>Recurrent costs of qualified educators (4-07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> General Paediatricians Practitioner</t>
   </si>
   <si>
     <t>Obstetricians and Gynaecologists Practitioner</t>
   </si>
   <si>
-    <t>Psychiatrists Practitioner</t>
-  </si>
-  <si>
-    <t>Medical group of Specialists Practitioner</t>
-  </si>
-  <si>
-    <t>Surgical group of Specialists Practitioner</t>
-  </si>
-  <si>
-    <t>Other Specialists Practitioner</t>
-  </si>
-  <si>
-    <t>Health Workforce Education Finance</t>
-  </si>
-  <si>
-    <t>Cost per graduate in medical specialist education programmes</t>
-  </si>
-  <si>
-    <t>Expenditure on HWF education</t>
-  </si>
-  <si>
-    <t>Recurrent costs of qualified educators</t>
-  </si>
-  <si>
-    <t>Tuition Fee per Student enrolled</t>
-  </si>
-  <si>
-    <t>Health Workforce Education Finance Source Type</t>
+    <t xml:space="preserve"> Psychiatrists Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical group of Specialists Practitioner </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surgical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>Medical specialist
+education programmes</t>
+  </si>
+  <si>
+    <t>HWF education and training programme</t>
+  </si>
+  <si>
+    <t>Total Cost per graduate in medical specialist
+education programmes (4-06)</t>
+  </si>
+  <si>
+    <t>Out of Pockets
+(OoP)</t>
+  </si>
+  <si>
+    <t>Official Development
+Assistance (ODA)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total expenditure on in-service training and continuing professional development (4-08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official Development Assistance </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Others</t>
   </si>
   <si>
     <t/>
@@ -2514,40 +2532,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2604,6 +2594,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2628,7 +2733,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2648,16 +2753,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2682,67 +2784,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2751,33 +2827,122 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - Énfasis1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma [0] 2" xfId="3"/>
     <cellStyle name="Comma [0] 3" xfId="4"/>
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2815,35 +2980,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$V$7" fmlaRange="$V$4:$V$6" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$P$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$P$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$P$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$P$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$P$13" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$P$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$P$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$V$17" fmlaRange="$V$13:$V$16" noThreeD="1" sel="4" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2853,13 +2990,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>713014</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>277586</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>10886</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2908,15 +3045,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>1371600</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>108857</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1314450</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>223157</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>402771</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2961,461 +3098,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1409700</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1068"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1070"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1072"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1175" name="Check Box 151" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1175"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3704,45 +3388,46 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BZ250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="10.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="7"/>
+    <col min="2" max="2" width="10.84375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="62.15234375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.53515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.53515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.15234375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.53515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3046875" style="7" customWidth="1"/>
+    <col min="11" max="15" width="9.15234375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="11.53515625" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.3046875" style="7" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="7" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="22" max="31" width="9.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="7" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="7"/>
+    <col min="20" max="20" width="12.15234375" style="7" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.69140625" style="7" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.84375" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="32" width="9.15234375" style="7" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="9.15234375" style="7" customWidth="1"/>
+    <col min="34" max="16384" width="9.15234375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3754,35 +3439,35 @@
       <c r="R1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="15" t="s">
-        <v>796</v>
+      <c r="V1" s="14" t="s">
+        <v>800</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AA1" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+    </row>
+    <row r="2" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -3794,23 +3479,23 @@
       <c r="R2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="16" t="e">
+      <c r="V2" s="15" t="e">
         <f>VLOOKUP(V1,Y2:AB250,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="AC2" s="7">
         <f>--ISNUMBER(IFERROR(SEARCH($V$1,Y2,1),""))</f>
@@ -3825,7 +3510,7 @@
         <v>Algeria</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3835,31 +3520,31 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="5"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="16"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC3" s="7">
         <f t="shared" ref="AC3:AC67" si="0">--ISNUMBER(IFERROR(SEARCH($V$1,Y3,1),""))</f>
@@ -3874,7 +3559,7 @@
         <v>Angola</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -3888,18 +3573,18 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="13"/>
       <c r="Y4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="AA4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC4" s="7">
         <f t="shared" si="0"/>
@@ -3914,9 +3599,9 @@
         <v>Benin</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+    <row r="5" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3932,20 +3617,17 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="V5" s="17" t="s">
-        <v>769</v>
-      </c>
       <c r="Y5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="0"/>
@@ -3960,42 +3642,33 @@
         <v>Botswana</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>766</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+    <row r="6" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
-      <c r="V6" s="17" t="s">
-        <v>770</v>
-      </c>
       <c r="Y6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC6" s="7">
         <f t="shared" si="0"/>
@@ -4010,36 +3683,41 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="V7" s="17">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B7" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>764</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
       <c r="Y7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC7" s="7">
         <f t="shared" si="0"/>
@@ -4054,41 +3732,39 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="33" t="s">
+    <row r="8" spans="2:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>773</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="V8" s="7" t="str">
-        <f>IF(V7=2,"true",IF(V7=3,"false",""))</f>
-        <v/>
-      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
       <c r="Y8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="Z8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="AB8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC8" s="7">
         <f t="shared" si="0"/>
@@ -4103,33 +3779,37 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+    <row r="9" spans="2:31" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
       <c r="Y9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC9" s="7">
         <f t="shared" si="0"/>
@@ -4144,41 +3824,37 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>775</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>776</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+    <row r="10" spans="2:31" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="B10" s="32">
+        <v>2</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="Y10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="0"/>
@@ -4193,33 +3869,33 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+    <row r="11" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="Y11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC11" s="7">
         <f t="shared" si="0"/>
@@ -4234,37 +3910,33 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="32">
-        <v>1</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>774</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+    <row r="12" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="Y12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="Z12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="AB12" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC12" s="7">
         <f t="shared" si="0"/>
@@ -4279,33 +3951,35 @@
         <v>Comoros</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+    <row r="13" spans="2:31" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>767</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Y13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="Z13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="AB13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC13" s="7">
         <f t="shared" si="0"/>
@@ -4320,41 +3994,30 @@
         <v>Congo</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>780</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+    <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="41"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="V14" s="7" t="s">
+        <v>765</v>
+      </c>
       <c r="Y14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="Z14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="AB14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC14" s="7">
         <f t="shared" si="0"/>
@@ -4369,39 +4032,34 @@
         <v>Cote d'Ivoire</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="37" t="s">
-        <v>781</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>782</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>783</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+    <row r="15" spans="2:31" ht="47.6" x14ac:dyDescent="0.45">
+      <c r="B15" s="26">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="V15" s="16" t="s">
+        <v>776</v>
+      </c>
       <c r="Y15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC15" s="7">
         <f t="shared" si="0"/>
@@ -4416,30 +4074,21 @@
         <v>Democratic Republic of the Congo</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="32">
-        <v>1</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="V16" s="7" t="s">
+        <v>766</v>
+      </c>
       <c r="Y16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC16" s="7">
         <f t="shared" si="0"/>
@@ -4454,30 +4103,30 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="38">
-        <v>2</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>778</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+    <row r="17" spans="17:31" x14ac:dyDescent="0.4">
+      <c r="Q17" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="V17" s="16">
+        <v>4</v>
+      </c>
       <c r="Y17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC17" s="7">
         <f t="shared" si="0"/>
@@ -4492,30 +4141,30 @@
         <v>Eritrea</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="38">
-        <v>3</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>779</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+    <row r="18" spans="17:31" x14ac:dyDescent="0.4">
+      <c r="Q18" s="7" t="str">
+        <f>IF(V17=2,"True","")</f>
+        <v/>
+      </c>
+      <c r="R18" s="7" t="str">
+        <f>IF(V17=3,"True","")</f>
+        <v/>
+      </c>
+      <c r="S18" s="7" t="str">
+        <f>IF(V17=4,"True","")</f>
+        <v>True</v>
+      </c>
       <c r="Y18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC18" s="7">
         <f t="shared" si="0"/>
@@ -4530,26 +4179,18 @@
         <v>Ethiopia</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+    <row r="19" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC19" s="7">
         <f t="shared" si="0"/>
@@ -4564,42 +4205,18 @@
         <v>Gabon</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>784</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>785</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>786</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>787</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>788</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>789</v>
-      </c>
+    <row r="20" spans="17:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC20" s="7">
         <f t="shared" si="0"/>
@@ -4614,26 +4231,18 @@
         <v>Gambia</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+    <row r="21" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC21" s="7">
         <f t="shared" si="0"/>
@@ -4648,30 +4257,18 @@
         <v>Ghana</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32">
-        <v>1</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>791</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+    <row r="22" spans="17:31" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC22" s="7">
         <f t="shared" si="0"/>
@@ -4686,18 +4283,18 @@
         <v>Guinea</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC23" s="7">
         <f t="shared" si="0"/>
@@ -4712,18 +4309,18 @@
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC24" s="7">
         <f t="shared" si="0"/>
@@ -4738,18 +4335,18 @@
         <v>Kenya</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC25" s="7">
         <f t="shared" si="0"/>
@@ -4764,18 +4361,18 @@
         <v>Lesotho</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC26" s="7">
         <f t="shared" si="0"/>
@@ -4790,18 +4387,18 @@
         <v>Liberia</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC27" s="7">
         <f t="shared" si="0"/>
@@ -4816,18 +4413,18 @@
         <v>Madagascar</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC28" s="7">
         <f t="shared" si="0"/>
@@ -4842,18 +4439,18 @@
         <v>Malawi</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC29" s="7">
         <f t="shared" si="0"/>
@@ -4868,18 +4465,18 @@
         <v>Mali</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC30" s="7">
         <f t="shared" si="0"/>
@@ -4894,18 +4491,18 @@
         <v>Mauritania</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC31" s="7">
         <f t="shared" si="0"/>
@@ -4920,18 +4517,18 @@
         <v>Mauritius</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AA32" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AB32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC32" s="7">
         <f t="shared" si="0"/>
@@ -4946,18 +4543,18 @@
         <v>Mozambique</v>
       </c>
     </row>
-    <row r="33" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z33" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AB33" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC33" s="7">
         <f t="shared" si="0"/>
@@ -4972,18 +4569,18 @@
         <v>Namibia</v>
       </c>
     </row>
-    <row r="34" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA34" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AB34" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC34" s="7">
         <f t="shared" si="0"/>
@@ -4998,18 +4595,18 @@
         <v>Niger</v>
       </c>
     </row>
-    <row r="35" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AB35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC35" s="7">
         <f t="shared" si="0"/>
@@ -5024,18 +4621,18 @@
         <v>Nigeria</v>
       </c>
     </row>
-    <row r="36" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y36" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AB36" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC36" s="7">
         <f t="shared" si="0"/>
@@ -5050,18 +4647,18 @@
         <v>Rwanda</v>
       </c>
     </row>
-    <row r="37" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z37" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AA37" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AB37" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC37" s="7">
         <f t="shared" si="0"/>
@@ -5076,18 +4673,18 @@
         <v>Sao Tome and Principe</v>
       </c>
     </row>
-    <row r="38" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z38" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA38" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB38" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC38" s="7">
         <f t="shared" si="0"/>
@@ -5102,18 +4699,18 @@
         <v>Senegal</v>
       </c>
     </row>
-    <row r="39" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z39" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AA39" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AB39" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC39" s="7">
         <f t="shared" si="0"/>
@@ -5128,18 +4725,18 @@
         <v>Seychelles</v>
       </c>
     </row>
-    <row r="40" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z40" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB40" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC40" s="7">
         <f t="shared" si="0"/>
@@ -5154,18 +4751,18 @@
         <v>Sierra Leone</v>
       </c>
     </row>
-    <row r="41" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y41" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z41" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AA41" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AB41" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC41" s="7">
         <f t="shared" si="0"/>
@@ -5180,18 +4777,18 @@
         <v>South Africa</v>
       </c>
     </row>
-    <row r="42" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA42" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="Z42" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA42" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="AB42" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC42" s="7">
         <f t="shared" si="0"/>
@@ -5206,18 +4803,18 @@
         <v>South Sudan</v>
       </c>
     </row>
-    <row r="43" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z43" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AA43" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AB43" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC43" s="7">
         <f t="shared" si="0"/>
@@ -5232,18 +4829,18 @@
         <v>Swaziland</v>
       </c>
     </row>
-    <row r="44" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA44" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AB44" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC44" s="7">
         <f t="shared" si="0"/>
@@ -5258,18 +4855,18 @@
         <v>Togo</v>
       </c>
     </row>
-    <row r="45" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y45" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z45" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA45" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AB45" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC45" s="7">
         <f t="shared" si="0"/>
@@ -5284,18 +4881,18 @@
         <v>Uganda</v>
       </c>
     </row>
-    <row r="46" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AA46" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB46" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC46" s="7">
         <f t="shared" si="0"/>
@@ -5310,18 +4907,18 @@
         <v>United Republic of Tanzania</v>
       </c>
     </row>
-    <row r="47" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y47" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z47" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB47" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC47" s="7">
         <f t="shared" si="0"/>
@@ -5336,18 +4933,18 @@
         <v>Zambia</v>
       </c>
     </row>
-    <row r="48" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y48" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AA48" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AB48" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC48" s="7">
         <f t="shared" si="0"/>
@@ -5362,18 +4959,18 @@
         <v>Zimbabwe</v>
       </c>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y49" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB49" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="AA49" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB49" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="AC49" s="7">
         <f t="shared" si="0"/>
@@ -5388,18 +4985,18 @@
         <v>Antigua and Barbuda</v>
       </c>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y50" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA50" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AB50" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC50" s="7">
         <f t="shared" si="0"/>
@@ -5414,18 +5011,18 @@
         <v>Argentina</v>
       </c>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y51" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA51" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="Z51" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA51" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="AB51" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC51" s="7">
         <f t="shared" si="0"/>
@@ -5440,18 +5037,18 @@
         <v>Bahamas</v>
       </c>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA52" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB52" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC52" s="7">
         <f t="shared" si="0"/>
@@ -5466,18 +5063,18 @@
         <v>Barbados</v>
       </c>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y53" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z53" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA53" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AB53" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC53" s="7">
         <f t="shared" si="0"/>
@@ -5492,18 +5089,18 @@
         <v>Belize</v>
       </c>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y54" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z54" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA54" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB54" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC54" s="7">
         <f t="shared" si="0"/>
@@ -5518,7 +5115,7 @@
         <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
-    <row r="57" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -5544,16 +5141,16 @@
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA57" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AB57" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC57" s="7">
         <f t="shared" si="0"/>
@@ -5615,18 +5212,18 @@
       <c r="BY57" s="7"/>
       <c r="BZ57" s="7"/>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y58" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z58" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA58" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AB58" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC58" s="7">
         <f t="shared" si="0"/>
@@ -5641,18 +5238,18 @@
         <v>Colombia</v>
       </c>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y59" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z59" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA59" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB59" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC59" s="7">
         <f t="shared" si="0"/>
@@ -5667,18 +5264,18 @@
         <v>Costa Rica</v>
       </c>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y60" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z60" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AA60" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AB60" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC60" s="7">
         <f t="shared" si="0"/>
@@ -5693,18 +5290,18 @@
         <v>Cuba</v>
       </c>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y61" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z61" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AA61" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AB61" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC61" s="7">
         <f t="shared" si="0"/>
@@ -5719,18 +5316,18 @@
         <v>Dominica</v>
       </c>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y62" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z62" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AA62" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AB62" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC62" s="7">
         <f t="shared" si="0"/>
@@ -5745,18 +5342,18 @@
         <v>Dominican Republic</v>
       </c>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y63" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z63" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA63" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AB63" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC63" s="7">
         <f t="shared" si="0"/>
@@ -5771,18 +5368,18 @@
         <v>Ecuador</v>
       </c>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y64" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z64" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AA64" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AB64" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC64" s="7">
         <f t="shared" si="0"/>
@@ -5797,18 +5394,18 @@
         <v>El Salvador</v>
       </c>
     </row>
-    <row r="65" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y65" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z65" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AA65" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB65" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC65" s="7">
         <f t="shared" si="0"/>
@@ -5823,18 +5420,18 @@
         <v>Grenada</v>
       </c>
     </row>
-    <row r="66" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y66" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z66" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AA66" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AB66" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC66" s="7">
         <f t="shared" si="0"/>
@@ -5849,18 +5446,18 @@
         <v>Guatemala</v>
       </c>
     </row>
-    <row r="67" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z67" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AA67" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AB67" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC67" s="7">
         <f t="shared" si="0"/>
@@ -5875,18 +5472,18 @@
         <v>Guyana</v>
       </c>
     </row>
-    <row r="68" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y68" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z68" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AA68" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AB68" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC68" s="7">
         <f t="shared" ref="AC68:AC131" si="1">--ISNUMBER(IFERROR(SEARCH($V$1,Y68,1),""))</f>
@@ -5901,18 +5498,18 @@
         <v>Haiti</v>
       </c>
     </row>
-    <row r="69" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y69" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z69" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA69" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AB69" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
@@ -5927,18 +5524,18 @@
         <v>Honduras</v>
       </c>
     </row>
-    <row r="70" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y70" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z70" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA70" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB70" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC70" s="7">
         <f t="shared" si="1"/>
@@ -5953,18 +5550,18 @@
         <v>Jamaica</v>
       </c>
     </row>
-    <row r="71" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y71" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z71" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AA71" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AB71" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC71" s="7">
         <f t="shared" si="1"/>
@@ -5979,18 +5576,18 @@
         <v>Mexico</v>
       </c>
     </row>
-    <row r="72" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z72" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AA72" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB72" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC72" s="7">
         <f t="shared" si="1"/>
@@ -6005,18 +5602,18 @@
         <v>Nicaragua</v>
       </c>
     </row>
-    <row r="73" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z73" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AA73" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AB73" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC73" s="7">
         <f t="shared" si="1"/>
@@ -6031,18 +5628,18 @@
         <v>Panama</v>
       </c>
     </row>
-    <row r="74" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z74" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AA74" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AB74" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC74" s="7">
         <f t="shared" si="1"/>
@@ -6057,18 +5654,18 @@
         <v>Paraguay</v>
       </c>
     </row>
-    <row r="75" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z75" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA75" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AB75" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC75" s="7">
         <f t="shared" si="1"/>
@@ -6083,18 +5680,18 @@
         <v>Peru</v>
       </c>
     </row>
-    <row r="76" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y76" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z76" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AA76" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AB76" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC76" s="7">
         <f t="shared" si="1"/>
@@ -6109,18 +5706,18 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="77" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y77" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z77" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AA77" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB77" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC77" s="7">
         <f t="shared" si="1"/>
@@ -6135,18 +5732,18 @@
         <v>Saint Lucia</v>
       </c>
     </row>
-    <row r="78" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y78" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z78" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AA78" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB78" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC78" s="7">
         <f t="shared" si="1"/>
@@ -6161,18 +5758,18 @@
         <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
-    <row r="79" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y79" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z79" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AA79" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AB79" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC79" s="7">
         <f t="shared" si="1"/>
@@ -6187,18 +5784,18 @@
         <v>Suriname</v>
       </c>
     </row>
-    <row r="80" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y80" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z80" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AA80" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AB80" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC80" s="7">
         <f t="shared" si="1"/>
@@ -6213,18 +5810,18 @@
         <v>Trinidad and Tobago</v>
       </c>
     </row>
-    <row r="81" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y81" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z81" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AA81" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AB81" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC81" s="7">
         <f t="shared" si="1"/>
@@ -6239,18 +5836,18 @@
         <v>United States of America</v>
       </c>
     </row>
-    <row r="82" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y82" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z82" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AA82" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AB82" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC82" s="7">
         <f t="shared" si="1"/>
@@ -6265,18 +5862,18 @@
         <v>Uruguay</v>
       </c>
     </row>
-    <row r="83" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y83" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z83" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA83" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AB83" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC83" s="7">
         <f t="shared" si="1"/>
@@ -6291,18 +5888,18 @@
         <v>Venezuela (Bolivarian Republic of)</v>
       </c>
     </row>
-    <row r="84" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y84" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z84" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AA84" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AB84" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC84" s="7">
         <f t="shared" si="1"/>
@@ -6317,18 +5914,18 @@
         <v>Afghanistan</v>
       </c>
     </row>
-    <row r="85" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y85" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z85" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AA85" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AB85" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC85" s="7">
         <f t="shared" si="1"/>
@@ -6343,18 +5940,18 @@
         <v>Bahrain</v>
       </c>
     </row>
-    <row r="86" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y86" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z86" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA86" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB86" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="AA86" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB86" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="AC86" s="7">
         <f t="shared" si="1"/>
@@ -6369,18 +5966,18 @@
         <v>Djibouti</v>
       </c>
     </row>
-    <row r="87" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y87" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z87" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AA87" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AB87" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC87" s="7">
         <f t="shared" si="1"/>
@@ -6395,18 +5992,18 @@
         <v>Egypt</v>
       </c>
     </row>
-    <row r="88" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y88" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z88" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AA88" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AB88" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC88" s="7">
         <f t="shared" si="1"/>
@@ -6421,18 +6018,18 @@
         <v>Iran (Islamic Republic of)</v>
       </c>
     </row>
-    <row r="89" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y89" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z89" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AA89" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AB89" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC89" s="7">
         <f t="shared" si="1"/>
@@ -6447,18 +6044,18 @@
         <v>Iraq</v>
       </c>
     </row>
-    <row r="90" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y90" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z90" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AA90" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AB90" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC90" s="7">
         <f t="shared" si="1"/>
@@ -6473,18 +6070,18 @@
         <v>Jordan</v>
       </c>
     </row>
-    <row r="91" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y91" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z91" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AA91" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AB91" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC91" s="7">
         <f t="shared" si="1"/>
@@ -6499,18 +6096,18 @@
         <v>Kuwait</v>
       </c>
     </row>
-    <row r="92" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y92" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z92" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA92" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AB92" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC92" s="7">
         <f t="shared" si="1"/>
@@ -6525,18 +6122,18 @@
         <v>Lebanon</v>
       </c>
     </row>
-    <row r="93" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y93" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z93" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AA93" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AB93" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC93" s="7">
         <f t="shared" si="1"/>
@@ -6551,18 +6148,18 @@
         <v>Libya</v>
       </c>
     </row>
-    <row r="94" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y94" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z94" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AA94" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AB94" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC94" s="7">
         <f t="shared" si="1"/>
@@ -6577,18 +6174,18 @@
         <v>Morocco</v>
       </c>
     </row>
-    <row r="95" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y95" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z95" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA95" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="Z95" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA95" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="AB95" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC95" s="7">
         <f t="shared" si="1"/>
@@ -6603,18 +6200,18 @@
         <v>Oman</v>
       </c>
     </row>
-    <row r="96" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y96" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z96" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AA96" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AB96" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC96" s="7">
         <f t="shared" si="1"/>
@@ -6629,18 +6226,18 @@
         <v>Pakistan</v>
       </c>
     </row>
-    <row r="97" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y97" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z97" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AA97" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AB97" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC97" s="7">
         <f t="shared" si="1"/>
@@ -6655,18 +6252,18 @@
         <v>Palestine</v>
       </c>
     </row>
-    <row r="98" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y98" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z98" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AA98" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AB98" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC98" s="7">
         <f t="shared" si="1"/>
@@ -6681,18 +6278,18 @@
         <v>Qatar</v>
       </c>
     </row>
-    <row r="99" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y99" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z99" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA99" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="Z99" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA99" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="AB99" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC99" s="7">
         <f t="shared" si="1"/>
@@ -6707,18 +6304,18 @@
         <v>Saudi Arabia</v>
       </c>
     </row>
-    <row r="100" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y100" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AA100" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AB100" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC100" s="7">
         <f t="shared" si="1"/>
@@ -6733,18 +6330,18 @@
         <v>Somalia</v>
       </c>
     </row>
-    <row r="101" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y101" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z101" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA101" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AB101" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC101" s="7">
         <f t="shared" si="1"/>
@@ -6759,18 +6356,18 @@
         <v>Sudan</v>
       </c>
     </row>
-    <row r="102" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y102" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z102" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA102" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AB102" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC102" s="7">
         <f t="shared" si="1"/>
@@ -6785,18 +6382,18 @@
         <v>Syrian Arab Republic</v>
       </c>
     </row>
-    <row r="103" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y103" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z103" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AA103" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AB103" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC103" s="7">
         <f t="shared" si="1"/>
@@ -6811,18 +6408,18 @@
         <v>Tunisia</v>
       </c>
     </row>
-    <row r="104" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y104" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z104" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AA104" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AB104" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC104" s="7">
         <f t="shared" si="1"/>
@@ -6837,18 +6434,18 @@
         <v>United Arab Emirates</v>
       </c>
     </row>
-    <row r="105" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y105" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z105" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AA105" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AB105" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC105" s="7">
         <f t="shared" si="1"/>
@@ -6863,18 +6460,18 @@
         <v>Yemen</v>
       </c>
     </row>
-    <row r="106" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y106" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z106" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AA106" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AB106" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC106" s="7">
         <f t="shared" si="1"/>
@@ -6889,18 +6486,18 @@
         <v>Albania</v>
       </c>
     </row>
-    <row r="107" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y107" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z107" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AA107" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AB107" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AC107" s="7">
         <f t="shared" si="1"/>
@@ -6915,18 +6512,18 @@
         <v>Andorra</v>
       </c>
     </row>
-    <row r="108" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y108" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z108" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA108" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB108" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="AA108" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB108" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="AC108" s="7">
         <f t="shared" si="1"/>
@@ -6941,18 +6538,18 @@
         <v>Armenia</v>
       </c>
     </row>
-    <row r="109" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y109" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z109" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA109" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AB109" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC109" s="7">
         <f t="shared" si="1"/>
@@ -6967,18 +6564,18 @@
         <v>Austria</v>
       </c>
     </row>
-    <row r="110" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y110" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z110" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AA110" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AB110" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC110" s="7">
         <f t="shared" si="1"/>
@@ -6993,18 +6590,18 @@
         <v>Azerbaijan</v>
       </c>
     </row>
-    <row r="111" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y111" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z111" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AA111" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AB111" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC111" s="7">
         <f t="shared" si="1"/>
@@ -7019,18 +6616,18 @@
         <v>Belarus</v>
       </c>
     </row>
-    <row r="112" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y112" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z112" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AA112" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AB112" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC112" s="7">
         <f t="shared" si="1"/>
@@ -7045,18 +6642,18 @@
         <v>Belgium</v>
       </c>
     </row>
-    <row r="113" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y113" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z113" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AA113" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AB113" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC113" s="7">
         <f t="shared" si="1"/>
@@ -7071,18 +6668,18 @@
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
-    <row r="114" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y114" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z114" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AA114" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AB114" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC114" s="7">
         <f t="shared" si="1"/>
@@ -7097,18 +6694,18 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="115" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y115" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z115" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AA115" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AB115" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC115" s="7">
         <f t="shared" si="1"/>
@@ -7123,18 +6720,18 @@
         <v>Croatia</v>
       </c>
     </row>
-    <row r="116" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y116" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z116" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AA116" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AB116" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC116" s="7">
         <f t="shared" si="1"/>
@@ -7149,18 +6746,18 @@
         <v>Cyprus</v>
       </c>
     </row>
-    <row r="117" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y117" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z117" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AA117" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AB117" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC117" s="7">
         <f t="shared" si="1"/>
@@ -7175,18 +6772,18 @@
         <v>Czech Republic</v>
       </c>
     </row>
-    <row r="118" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y118" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z118" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AA118" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AB118" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC118" s="7">
         <f t="shared" si="1"/>
@@ -7201,18 +6798,18 @@
         <v>Denmark</v>
       </c>
     </row>
-    <row r="119" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y119" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z119" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AA119" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AB119" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC119" s="7">
         <f t="shared" si="1"/>
@@ -7227,18 +6824,18 @@
         <v>Estonia</v>
       </c>
     </row>
-    <row r="120" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y120" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z120" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AA120" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AB120" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC120" s="7">
         <f t="shared" si="1"/>
@@ -7253,18 +6850,18 @@
         <v>Finland</v>
       </c>
     </row>
-    <row r="121" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y121" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z121" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AA121" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB121" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC121" s="7">
         <f t="shared" si="1"/>
@@ -7279,18 +6876,18 @@
         <v>France</v>
       </c>
     </row>
-    <row r="122" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y122" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z122" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AA122" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AB122" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC122" s="7">
         <f t="shared" si="1"/>
@@ -7305,18 +6902,18 @@
         <v>Georgia</v>
       </c>
     </row>
-    <row r="123" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y123" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z123" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AA123" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AB123" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC123" s="7">
         <f t="shared" si="1"/>
@@ -7331,18 +6928,18 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="124" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y124" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z124" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AA124" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AB124" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC124" s="7">
         <f t="shared" si="1"/>
@@ -7357,18 +6954,18 @@
         <v>Greece</v>
       </c>
     </row>
-    <row r="125" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y125" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z125" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AA125" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AB125" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC125" s="7">
         <f t="shared" si="1"/>
@@ -7383,18 +6980,18 @@
         <v>Hungary</v>
       </c>
     </row>
-    <row r="126" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y126" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z126" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AA126" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AB126" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC126" s="7">
         <f t="shared" si="1"/>
@@ -7409,18 +7006,18 @@
         <v>Iceland</v>
       </c>
     </row>
-    <row r="127" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y127" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z127" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AA127" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AB127" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC127" s="7">
         <f t="shared" si="1"/>
@@ -7435,18 +7032,18 @@
         <v>Ireland</v>
       </c>
     </row>
-    <row r="128" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y128" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z128" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AA128" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AB128" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC128" s="7">
         <f t="shared" si="1"/>
@@ -7461,18 +7058,18 @@
         <v>Israel</v>
       </c>
     </row>
-    <row r="129" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y129" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z129" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AA129" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AB129" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC129" s="7">
         <f t="shared" si="1"/>
@@ -7487,18 +7084,18 @@
         <v>Italy</v>
       </c>
     </row>
-    <row r="130" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y130" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z130" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AA130" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AB130" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC130" s="7">
         <f t="shared" si="1"/>
@@ -7513,18 +7110,18 @@
         <v>Kazakhstan</v>
       </c>
     </row>
-    <row r="131" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y131" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z131" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AA131" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AB131" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC131" s="7">
         <f t="shared" si="1"/>
@@ -7539,18 +7136,18 @@
         <v>Kyrgyzstan</v>
       </c>
     </row>
-    <row r="132" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y132" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z132" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AA132" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AB132" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC132" s="7">
         <f t="shared" ref="AC132:AC195" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y132,1),""))</f>
@@ -7565,18 +7162,18 @@
         <v>Latvia</v>
       </c>
     </row>
-    <row r="133" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y133" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z133" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AA133" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AB133" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC133" s="7">
         <f t="shared" si="2"/>
@@ -7591,18 +7188,18 @@
         <v>Lithuania</v>
       </c>
     </row>
-    <row r="134" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y134" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z134" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AA134" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AB134" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC134" s="7">
         <f t="shared" si="2"/>
@@ -7617,18 +7214,18 @@
         <v>Luxembourg</v>
       </c>
     </row>
-    <row r="135" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y135" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z135" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AA135" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AB135" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC135" s="7">
         <f t="shared" si="2"/>
@@ -7643,18 +7240,18 @@
         <v>Malta</v>
       </c>
     </row>
-    <row r="136" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y136" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z136" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AA136" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AB136" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC136" s="7">
         <f t="shared" si="2"/>
@@ -7669,18 +7266,18 @@
         <v>Monaco</v>
       </c>
     </row>
-    <row r="137" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y137" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z137" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AA137" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AB137" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC137" s="7">
         <f t="shared" si="2"/>
@@ -7695,18 +7292,18 @@
         <v>Montenegro</v>
       </c>
     </row>
-    <row r="138" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y138" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z138" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AA138" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AB138" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC138" s="7">
         <f t="shared" si="2"/>
@@ -7721,18 +7318,18 @@
         <v>Netherlands</v>
       </c>
     </row>
-    <row r="139" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y139" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z139" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AA139" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AB139" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC139" s="7">
         <f t="shared" si="2"/>
@@ -7747,18 +7344,18 @@
         <v>Norway</v>
       </c>
     </row>
-    <row r="140" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y140" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z140" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AA140" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AB140" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC140" s="7">
         <f t="shared" si="2"/>
@@ -7773,18 +7370,18 @@
         <v>Poland</v>
       </c>
     </row>
-    <row r="141" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y141" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z141" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AA141" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AB141" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC141" s="7">
         <f t="shared" si="2"/>
@@ -7799,18 +7396,18 @@
         <v>Portugal</v>
       </c>
     </row>
-    <row r="142" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y142" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z142" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AA142" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AB142" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC142" s="7">
         <f t="shared" si="2"/>
@@ -7825,18 +7422,18 @@
         <v>Republic of Moldova</v>
       </c>
     </row>
-    <row r="143" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y143" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z143" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AA143" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AB143" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC143" s="7">
         <f t="shared" si="2"/>
@@ -7851,18 +7448,18 @@
         <v>Romania</v>
       </c>
     </row>
-    <row r="144" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y144" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z144" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AA144" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AB144" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC144" s="7">
         <f t="shared" si="2"/>
@@ -7877,18 +7474,18 @@
         <v>Russian Federation</v>
       </c>
     </row>
-    <row r="145" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y145" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z145" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AA145" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AB145" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC145" s="7">
         <f t="shared" si="2"/>
@@ -7903,18 +7500,18 @@
         <v>San Marino</v>
       </c>
     </row>
-    <row r="146" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y146" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z146" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AA146" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AB146" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC146" s="7">
         <f t="shared" si="2"/>
@@ -7929,18 +7526,18 @@
         <v>Serbia</v>
       </c>
     </row>
-    <row r="147" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y147" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z147" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AA147" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AB147" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC147" s="7">
         <f t="shared" si="2"/>
@@ -7955,18 +7552,18 @@
         <v>Slovakia</v>
       </c>
     </row>
-    <row r="148" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y148" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z148" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AA148" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AB148" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC148" s="7">
         <f t="shared" si="2"/>
@@ -7981,18 +7578,18 @@
         <v>Slovenia</v>
       </c>
     </row>
-    <row r="149" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y149" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z149" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AA149" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AB149" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC149" s="7">
         <f t="shared" si="2"/>
@@ -8007,18 +7604,18 @@
         <v>Spain</v>
       </c>
     </row>
-    <row r="150" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y150" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z150" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA150" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AB150" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC150" s="7">
         <f t="shared" si="2"/>
@@ -8033,18 +7630,18 @@
         <v>Sweden</v>
       </c>
     </row>
-    <row r="151" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y151" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z151" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA151" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AB151" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC151" s="7">
         <f t="shared" si="2"/>
@@ -8059,18 +7656,18 @@
         <v>Switzerland</v>
       </c>
     </row>
-    <row r="152" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y152" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z152" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AA152" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AB152" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC152" s="7">
         <f t="shared" si="2"/>
@@ -8085,18 +7682,18 @@
         <v>Tajikistan</v>
       </c>
     </row>
-    <row r="153" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y153" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z153" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AA153" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AB153" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC153" s="7">
         <f t="shared" si="2"/>
@@ -8111,18 +7708,18 @@
         <v>The former Yugoslav republic of Macedonia</v>
       </c>
     </row>
-    <row r="154" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y154" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z154" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AA154" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AB154" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC154" s="7">
         <f t="shared" si="2"/>
@@ -8137,18 +7734,18 @@
         <v>Turkey</v>
       </c>
     </row>
-    <row r="155" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y155" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z155" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA155" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="Z155" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA155" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="AB155" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC155" s="7">
         <f t="shared" si="2"/>
@@ -8163,18 +7760,18 @@
         <v>Turkmenistan</v>
       </c>
     </row>
-    <row r="156" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y156" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z156" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AA156" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AB156" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC156" s="7">
         <f t="shared" si="2"/>
@@ -8189,18 +7786,18 @@
         <v>Ukraine</v>
       </c>
     </row>
-    <row r="157" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y157" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z157" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AA157" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AB157" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC157" s="7">
         <f t="shared" si="2"/>
@@ -8215,18 +7812,18 @@
         <v>United Kingdom of Great Britain and Northern Ireland</v>
       </c>
     </row>
-    <row r="158" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y158" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z158" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AA158" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AB158" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC158" s="7">
         <f t="shared" si="2"/>
@@ -8241,18 +7838,18 @@
         <v>Uzbekistan</v>
       </c>
     </row>
-    <row r="159" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y159" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z159" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA159" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="Z159" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA159" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="AB159" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC159" s="7">
         <f t="shared" si="2"/>
@@ -8267,18 +7864,18 @@
         <v>American Samoa</v>
       </c>
     </row>
-    <row r="160" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y160" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z160" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AA160" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AB160" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC160" s="7">
         <f t="shared" si="2"/>
@@ -8293,18 +7890,18 @@
         <v>Anguilla</v>
       </c>
     </row>
-    <row r="161" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y161" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z161" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA161" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="Z161" s="7" t="s">
+      <c r="AB161" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="AA161" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB161" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="AC161" s="7">
         <f t="shared" si="2"/>
@@ -8319,18 +7916,18 @@
         <v>Aruba</v>
       </c>
     </row>
-    <row r="162" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y162" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z162" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA162" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="Z162" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA162" s="7" t="s">
-        <v>534</v>
-      </c>
       <c r="AB162" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC162" s="7">
         <f t="shared" si="2"/>
@@ -8345,18 +7942,18 @@
         <v>Bermuda</v>
       </c>
     </row>
-    <row r="163" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y163" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z163" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA163" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="Z163" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA163" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="AB163" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC163" s="7">
         <f t="shared" si="2"/>
@@ -8371,18 +7968,18 @@
         <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
-    <row r="164" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y164" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z164" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA164" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="Z164" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA164" s="7" t="s">
-        <v>540</v>
-      </c>
       <c r="AB164" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC164" s="7">
         <f t="shared" si="2"/>
@@ -8397,18 +7994,18 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="165" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y165" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z165" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA165" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="Z165" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA165" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="AB165" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC165" s="7">
         <f t="shared" si="2"/>
@@ -8423,18 +8020,18 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="166" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y166" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z166" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA166" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="Z166" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA166" s="7" t="s">
-        <v>546</v>
-      </c>
       <c r="AB166" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC166" s="7">
         <f t="shared" si="2"/>
@@ -8449,18 +8046,18 @@
         <v>China, Hong Kong Special Administrative Region</v>
       </c>
     </row>
-    <row r="167" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y167" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z167" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA167" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="Z167" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA167" s="7" t="s">
-        <v>549</v>
-      </c>
       <c r="AB167" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC167" s="7">
         <f t="shared" si="2"/>
@@ -8475,18 +8072,18 @@
         <v>China, Macao Special Administrative Region</v>
       </c>
     </row>
-    <row r="168" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y168" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z168" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA168" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="Z168" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA168" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="AB168" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC168" s="7">
         <f t="shared" si="2"/>
@@ -8501,18 +8098,18 @@
         <v>China: Province of Taiwan only</v>
       </c>
     </row>
-    <row r="169" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y169" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z169" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA169" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="Z169" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA169" s="7" t="s">
-        <v>555</v>
-      </c>
       <c r="AB169" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC169" s="7">
         <f t="shared" si="2"/>
@@ -8527,18 +8124,18 @@
         <v>Curacao</v>
       </c>
     </row>
-    <row r="170" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y170" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z170" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA170" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="Z170" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA170" s="7" t="s">
-        <v>558</v>
-      </c>
       <c r="AB170" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC170" s="7">
         <f t="shared" si="2"/>
@@ -8553,18 +8150,18 @@
         <v>Czechoslovakia, Former</v>
       </c>
     </row>
-    <row r="171" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y171" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z171" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA171" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="Z171" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA171" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="AB171" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC171" s="7">
         <f t="shared" si="2"/>
@@ -8579,18 +8176,18 @@
         <v>Falkland Islands (Malvinas)</v>
       </c>
     </row>
-    <row r="172" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y172" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z172" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA172" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="Z172" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="AA172" s="7" t="s">
-        <v>564</v>
-      </c>
       <c r="AB172" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC172" s="7">
         <f t="shared" si="2"/>
@@ -8605,18 +8202,18 @@
         <v>Faroe Islands</v>
       </c>
     </row>
-    <row r="173" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y173" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z173" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA173" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="Z173" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="AA173" s="7" t="s">
-        <v>567</v>
-      </c>
       <c r="AB173" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC173" s="7">
         <f t="shared" si="2"/>
@@ -8631,18 +8228,18 @@
         <v>French Guiana</v>
       </c>
     </row>
-    <row r="174" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y174" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z174" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA174" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="Z174" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA174" s="7" t="s">
-        <v>570</v>
-      </c>
       <c r="AB174" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC174" s="7">
         <f t="shared" si="2"/>
@@ -8657,18 +8254,18 @@
         <v>French Polynesia</v>
       </c>
     </row>
-    <row r="175" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y175" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z175" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA175" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="Z175" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="AA175" s="7" t="s">
-        <v>573</v>
-      </c>
       <c r="AB175" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC175" s="7">
         <f t="shared" si="2"/>
@@ -8683,18 +8280,18 @@
         <v>Germany, Former Democratic Republic</v>
       </c>
     </row>
-    <row r="176" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y176" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z176" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA176" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="Z176" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA176" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="AB176" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC176" s="7">
         <f t="shared" si="2"/>
@@ -8709,18 +8306,18 @@
         <v>Germany, Former Federal Republic</v>
       </c>
     </row>
-    <row r="177" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y177" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z177" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA177" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="Z177" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA177" s="7" t="s">
-        <v>579</v>
-      </c>
       <c r="AB177" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC177" s="7">
         <f t="shared" si="2"/>
@@ -8735,18 +8332,18 @@
         <v>Germany, West Berlin</v>
       </c>
     </row>
-    <row r="178" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y178" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z178" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA178" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="Z178" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA178" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="AB178" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC178" s="7">
         <f t="shared" si="2"/>
@@ -8761,18 +8358,18 @@
         <v>Gibraltar</v>
       </c>
     </row>
-    <row r="179" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y179" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z179" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA179" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="Z179" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA179" s="7" t="s">
-        <v>585</v>
-      </c>
       <c r="AB179" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC179" s="7">
         <f t="shared" si="2"/>
@@ -8787,18 +8384,18 @@
         <v>Greenland</v>
       </c>
     </row>
-    <row r="180" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y180" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z180" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA180" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="Z180" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="AA180" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="AB180" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC180" s="7">
         <f t="shared" si="2"/>
@@ -8813,18 +8410,18 @@
         <v>Guadeloupe</v>
       </c>
     </row>
-    <row r="181" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y181" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z181" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA181" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="Z181" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA181" s="7" t="s">
-        <v>591</v>
-      </c>
       <c r="AB181" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC181" s="7">
         <f t="shared" si="2"/>
@@ -8839,18 +8436,18 @@
         <v>Guam</v>
       </c>
     </row>
-    <row r="182" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y182" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z182" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA182" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="Z182" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA182" s="7" t="s">
-        <v>594</v>
-      </c>
       <c r="AB182" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC182" s="7">
         <f t="shared" si="2"/>
@@ -8865,18 +8462,18 @@
         <v>Liechtenstein</v>
       </c>
     </row>
-    <row r="183" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y183" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z183" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA183" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="Z183" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA183" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="AB183" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC183" s="7">
         <f t="shared" si="2"/>
@@ -8891,18 +8488,18 @@
         <v>Martinique</v>
       </c>
     </row>
-    <row r="184" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y184" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z184" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA184" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="Z184" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="AA184" s="7" t="s">
-        <v>600</v>
-      </c>
       <c r="AB184" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC184" s="7">
         <f t="shared" si="2"/>
@@ -8917,18 +8514,18 @@
         <v>Mayotte</v>
       </c>
     </row>
-    <row r="185" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y185" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z185" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA185" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="Z185" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA185" s="7" t="s">
-        <v>603</v>
-      </c>
       <c r="AB185" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC185" s="7">
         <f t="shared" si="2"/>
@@ -8943,18 +8540,18 @@
         <v>Montserrat</v>
       </c>
     </row>
-    <row r="186" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y186" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Z186" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA186" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="Z186" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="AA186" s="7" t="s">
-        <v>606</v>
-      </c>
       <c r="AB186" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC186" s="7">
         <f t="shared" si="2"/>
@@ -8969,18 +8566,18 @@
         <v>Netherlands Antilles</v>
       </c>
     </row>
-    <row r="187" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y187" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z187" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA187" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="Z187" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="AA187" s="7" t="s">
-        <v>609</v>
-      </c>
       <c r="AB187" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC187" s="7">
         <f t="shared" si="2"/>
@@ -8995,18 +8592,18 @@
         <v>New Caledonia</v>
       </c>
     </row>
-    <row r="188" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y188" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Z188" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA188" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="Z188" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA188" s="7" t="s">
-        <v>612</v>
-      </c>
       <c r="AB188" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC188" s="7">
         <f t="shared" si="2"/>
@@ -9021,18 +8618,18 @@
         <v>Norfolk Island</v>
       </c>
     </row>
-    <row r="189" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y189" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z189" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA189" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="Z189" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA189" s="7" t="s">
-        <v>615</v>
-      </c>
       <c r="AB189" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC189" s="7">
         <f t="shared" si="2"/>
@@ -9047,18 +8644,18 @@
         <v>Northern Mariana Islands</v>
       </c>
     </row>
-    <row r="190" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y190" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z190" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA190" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="Z190" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA190" s="7" t="s">
-        <v>618</v>
-      </c>
       <c r="AB190" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC190" s="7">
         <f t="shared" si="2"/>
@@ -9073,18 +8670,18 @@
         <v>Pitcairn Island</v>
       </c>
     </row>
-    <row r="191" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y191" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z191" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA191" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="Z191" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA191" s="7" t="s">
-        <v>621</v>
-      </c>
       <c r="AB191" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC191" s="7">
         <f t="shared" si="2"/>
@@ -9099,18 +8696,18 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="192" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y192" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z192" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA192" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="Z192" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA192" s="7" t="s">
-        <v>624</v>
-      </c>
       <c r="AB192" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC192" s="7">
         <f t="shared" si="2"/>
@@ -9125,18 +8722,18 @@
         <v>Rodrigues</v>
       </c>
     </row>
-    <row r="193" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y193" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z193" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA193" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="Z193" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA193" s="7" t="s">
-        <v>627</v>
-      </c>
       <c r="AB193" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC193" s="7">
         <f t="shared" si="2"/>
@@ -9151,18 +8748,18 @@
         <v>Rï¿½union</v>
       </c>
     </row>
-    <row r="194" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y194" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z194" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA194" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="Z194" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA194" s="7" t="s">
-        <v>630</v>
-      </c>
       <c r="AB194" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC194" s="7">
         <f t="shared" si="2"/>
@@ -9177,18 +8774,18 @@
         <v>Ryu Kyu Islands</v>
       </c>
     </row>
-    <row r="195" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y195" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z195" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA195" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="Z195" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA195" s="7" t="s">
-        <v>633</v>
-      </c>
       <c r="AB195" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC195" s="7">
         <f t="shared" si="2"/>
@@ -9203,18 +8800,18 @@
         <v>Saint Helena</v>
       </c>
     </row>
-    <row r="196" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y196" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z196" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA196" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="Z196" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="AA196" s="7" t="s">
-        <v>636</v>
-      </c>
       <c r="AB196" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC196" s="7">
         <f t="shared" ref="AC196:AC250" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y196,1),""))</f>
@@ -9229,18 +8826,18 @@
         <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
-    <row r="197" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y197" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z197" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA197" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="Z197" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="AA197" s="7" t="s">
-        <v>639</v>
-      </c>
       <c r="AB197" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC197" s="7">
         <f t="shared" si="3"/>
@@ -9255,18 +8852,18 @@
         <v>Serbia and Montenegro, Former</v>
       </c>
     </row>
-    <row r="198" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y198" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z198" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA198" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="Z198" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA198" s="7" t="s">
-        <v>642</v>
-      </c>
       <c r="AB198" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC198" s="7">
         <f t="shared" si="3"/>
@@ -9281,18 +8878,18 @@
         <v>Sint Maarten (Dutch part)</v>
       </c>
     </row>
-    <row r="199" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y199" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z199" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA199" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="Z199" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="AA199" s="7" t="s">
-        <v>645</v>
-      </c>
       <c r="AB199" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC199" s="7">
         <f t="shared" si="3"/>
@@ -9307,18 +8904,18 @@
         <v>Sudan (former)</v>
       </c>
     </row>
-    <row r="200" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y200" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z200" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA200" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="Z200" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="AA200" s="7" t="s">
-        <v>648</v>
-      </c>
       <c r="AB200" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC200" s="7">
         <f t="shared" si="3"/>
@@ -9333,18 +8930,18 @@
         <v>The former state union Serbia and Montenegro</v>
       </c>
     </row>
-    <row r="201" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y201" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="Z201" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA201" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="Z201" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="AA201" s="7" t="s">
-        <v>651</v>
-      </c>
       <c r="AB201" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC201" s="7">
         <f t="shared" si="3"/>
@@ -9359,18 +8956,18 @@
         <v>Tokelau</v>
       </c>
     </row>
-    <row r="202" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y202" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z202" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA202" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="Z202" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="AA202" s="7" t="s">
-        <v>654</v>
-      </c>
       <c r="AB202" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC202" s="7">
         <f t="shared" si="3"/>
@@ -9385,18 +8982,18 @@
         <v>Turks and Caicos Islands</v>
       </c>
     </row>
-    <row r="203" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y203" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="Z203" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA203" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="Z203" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA203" s="7" t="s">
-        <v>657</v>
-      </c>
       <c r="AB203" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC203" s="7">
         <f t="shared" si="3"/>
@@ -9411,18 +9008,18 @@
         <v>United Kingdom, England and Wales</v>
       </c>
     </row>
-    <row r="204" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y204" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z204" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA204" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="Z204" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="AA204" s="7" t="s">
-        <v>660</v>
-      </c>
       <c r="AB204" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC204" s="7">
         <f t="shared" si="3"/>
@@ -9437,18 +9034,18 @@
         <v>United Kingdom, Northern Ireland</v>
       </c>
     </row>
-    <row r="205" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y205" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z205" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA205" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="Z205" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="AA205" s="7" t="s">
-        <v>663</v>
-      </c>
       <c r="AB205" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC205" s="7">
         <f t="shared" si="3"/>
@@ -9463,18 +9060,18 @@
         <v>United Kingdom, Scotland</v>
       </c>
     </row>
-    <row r="206" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y206" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z206" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="AA206" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="Z206" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA206" s="7" t="s">
-        <v>666</v>
-      </c>
       <c r="AB206" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC206" s="7">
         <f t="shared" si="3"/>
@@ -9489,18 +9086,18 @@
         <v>USSR, Former</v>
       </c>
     </row>
-    <row r="207" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y207" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z207" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA207" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="Z207" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA207" s="7" t="s">
-        <v>669</v>
-      </c>
       <c r="AB207" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC207" s="7">
         <f t="shared" si="3"/>
@@ -9515,18 +9112,18 @@
         <v>Virgin Islands (USA)</v>
       </c>
     </row>
-    <row r="208" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y208" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z208" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA208" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="Z208" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA208" s="7" t="s">
-        <v>672</v>
-      </c>
       <c r="AB208" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC208" s="7">
         <f t="shared" si="3"/>
@@ -9541,18 +9138,18 @@
         <v>Wallis and Futuna Islands</v>
       </c>
     </row>
-    <row r="209" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y209" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z209" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA209" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="Z209" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA209" s="7" t="s">
-        <v>675</v>
-      </c>
       <c r="AB209" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC209" s="7">
         <f t="shared" si="3"/>
@@ -9567,18 +9164,18 @@
         <v>West Bank</v>
       </c>
     </row>
-    <row r="210" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y210" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z210" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA210" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="Z210" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA210" s="7" t="s">
-        <v>678</v>
-      </c>
       <c r="AB210" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC210" s="7">
         <f t="shared" si="3"/>
@@ -9593,18 +9190,18 @@
         <v>Yugoslavia, Former</v>
       </c>
     </row>
-    <row r="211" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y211" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z211" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA211" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="Z211" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA211" s="7" t="s">
-        <v>681</v>
-      </c>
       <c r="AB211" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC211" s="7">
         <f t="shared" si="3"/>
@@ -9619,18 +9216,18 @@
         <v>Bangladesh</v>
       </c>
     </row>
-    <row r="212" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y212" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z212" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA212" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="Z212" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="AA212" s="7" t="s">
-        <v>684</v>
-      </c>
       <c r="AB212" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC212" s="7">
         <f t="shared" si="3"/>
@@ -9645,18 +9242,18 @@
         <v>Bhutan</v>
       </c>
     </row>
-    <row r="213" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y213" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z213" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA213" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB213" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="AA213" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB213" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="AC213" s="7">
         <f t="shared" si="3"/>
@@ -9671,18 +9268,18 @@
         <v>Democratic People's Republic of Korea</v>
       </c>
     </row>
-    <row r="214" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y214" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z214" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AA214" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AB214" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC214" s="7">
         <f t="shared" si="3"/>
@@ -9697,18 +9294,18 @@
         <v>India</v>
       </c>
     </row>
-    <row r="215" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y215" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z215" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AA215" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AB215" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC215" s="7">
         <f t="shared" si="3"/>
@@ -9723,18 +9320,18 @@
         <v>Indonesia</v>
       </c>
     </row>
-    <row r="216" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y216" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z216" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AA216" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AB216" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC216" s="7">
         <f t="shared" si="3"/>
@@ -9749,18 +9346,18 @@
         <v>Maldives</v>
       </c>
     </row>
-    <row r="217" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y217" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z217" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AA217" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AB217" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC217" s="7">
         <f t="shared" si="3"/>
@@ -9775,18 +9372,18 @@
         <v>Myanmar</v>
       </c>
     </row>
-    <row r="218" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y218" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z218" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AA218" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AB218" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC218" s="7">
         <f t="shared" si="3"/>
@@ -9801,18 +9398,18 @@
         <v>Nepal</v>
       </c>
     </row>
-    <row r="219" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y219" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z219" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AA219" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AB219" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC219" s="7">
         <f t="shared" si="3"/>
@@ -9827,18 +9424,18 @@
         <v>Sri Lanka</v>
       </c>
     </row>
-    <row r="220" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y220" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z220" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA220" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AB220" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC220" s="7">
         <f t="shared" si="3"/>
@@ -9853,18 +9450,18 @@
         <v>Thailand</v>
       </c>
     </row>
-    <row r="221" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y221" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z221" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AA221" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AB221" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC221" s="7">
         <f t="shared" si="3"/>
@@ -9879,18 +9476,18 @@
         <v>Timor-Leste</v>
       </c>
     </row>
-    <row r="222" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y222" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z222" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AA222" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AB222" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC222" s="7">
         <f t="shared" si="3"/>
@@ -9905,18 +9502,18 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="223" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y223" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z223" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AA223" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AB223" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC223" s="7">
         <f t="shared" si="3"/>
@@ -9931,18 +9528,18 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="224" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y224" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z224" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA224" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="AB224" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="AA224" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="AB224" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="AC224" s="7">
         <f t="shared" si="3"/>
@@ -9957,18 +9554,18 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="225" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y225" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z225" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA225" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AB225" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC225" s="7">
         <f t="shared" si="3"/>
@@ -9983,18 +9580,18 @@
         <v>China</v>
       </c>
     </row>
-    <row r="226" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y226" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z226" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA226" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AB226" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC226" s="7">
         <f t="shared" si="3"/>
@@ -10009,18 +9606,18 @@
         <v>Cook Islands</v>
       </c>
     </row>
-    <row r="227" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y227" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="Z227" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA227" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="Z227" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="AA227" s="7" t="s">
-        <v>717</v>
-      </c>
       <c r="AB227" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC227" s="7">
         <f t="shared" si="3"/>
@@ -10035,18 +9632,18 @@
         <v>Fiji</v>
       </c>
     </row>
-    <row r="228" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y228" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z228" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AA228" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AB228" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC228" s="7">
         <f t="shared" si="3"/>
@@ -10061,18 +9658,18 @@
         <v>Japan</v>
       </c>
     </row>
-    <row r="229" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y229" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z229" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AA229" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AB229" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC229" s="7">
         <f t="shared" si="3"/>
@@ -10087,18 +9684,18 @@
         <v>Kiribati</v>
       </c>
     </row>
-    <row r="230" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y230" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z230" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AA230" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AB230" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC230" s="7">
         <f t="shared" si="3"/>
@@ -10113,18 +9710,18 @@
         <v>Lao People's Democratic Republic</v>
       </c>
     </row>
-    <row r="231" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y231" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z231" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AA231" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AB231" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC231" s="7">
         <f t="shared" si="3"/>
@@ -10139,18 +9736,18 @@
         <v>Malaysia</v>
       </c>
     </row>
-    <row r="232" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y232" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z232" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AA232" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AB232" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC232" s="7">
         <f t="shared" si="3"/>
@@ -10165,18 +9762,18 @@
         <v>Marshall Islands</v>
       </c>
     </row>
-    <row r="233" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y233" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z233" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AA233" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AB233" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC233" s="7">
         <f t="shared" si="3"/>
@@ -10191,18 +9788,18 @@
         <v>Micronesia (Federated States of)</v>
       </c>
     </row>
-    <row r="234" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y234" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z234" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AA234" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AB234" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC234" s="7">
         <f t="shared" si="3"/>
@@ -10217,18 +9814,18 @@
         <v>Mongolia</v>
       </c>
     </row>
-    <row r="235" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y235" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z235" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AA235" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AB235" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC235" s="7">
         <f t="shared" si="3"/>
@@ -10243,18 +9840,18 @@
         <v>Nauru</v>
       </c>
     </row>
-    <row r="236" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y236" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z236" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AA236" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AB236" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC236" s="7">
         <f t="shared" si="3"/>
@@ -10269,18 +9866,18 @@
         <v>New Zealand</v>
       </c>
     </row>
-    <row r="237" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y237" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z237" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AA237" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AB237" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC237" s="7">
         <f t="shared" si="3"/>
@@ -10295,18 +9892,18 @@
         <v>Niue</v>
       </c>
     </row>
-    <row r="238" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y238" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z238" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AA238" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AB238" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC238" s="7">
         <f t="shared" si="3"/>
@@ -10321,18 +9918,18 @@
         <v>Palau</v>
       </c>
     </row>
-    <row r="239" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y239" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z239" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AA239" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AB239" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC239" s="7">
         <f t="shared" si="3"/>
@@ -10347,18 +9944,18 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="240" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y240" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z240" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA240" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="Z240" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="AA240" s="7" t="s">
-        <v>744</v>
-      </c>
       <c r="AB240" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC240" s="7">
         <f t="shared" si="3"/>
@@ -10373,18 +9970,18 @@
         <v>Philippines</v>
       </c>
     </row>
-    <row r="241" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y241" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z241" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AA241" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AB241" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC241" s="7">
         <f t="shared" si="3"/>
@@ -10399,18 +9996,18 @@
         <v>Republic of Korea</v>
       </c>
     </row>
-    <row r="242" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y242" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z242" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AA242" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AB242" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC242" s="7">
         <f t="shared" si="3"/>
@@ -10425,18 +10022,18 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="243" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y243" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z243" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AA243" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AB243" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC243" s="7">
         <f t="shared" si="3"/>
@@ -10451,18 +10048,18 @@
         <v>Singapore</v>
       </c>
     </row>
-    <row r="244" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y244" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z244" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AA244" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AB244" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC244" s="7">
         <f t="shared" si="3"/>
@@ -10477,18 +10074,18 @@
         <v>Solomon Islands</v>
       </c>
     </row>
-    <row r="245" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y245" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z245" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AA245" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AB245" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC245" s="7">
         <f t="shared" si="3"/>
@@ -10503,18 +10100,18 @@
         <v>Tonga</v>
       </c>
     </row>
-    <row r="246" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y246" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z246" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AA246" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AB246" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC246" s="7">
         <f t="shared" si="3"/>
@@ -10529,18 +10126,18 @@
         <v>Tuvalu</v>
       </c>
     </row>
-    <row r="247" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y247" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z247" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AA247" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AB247" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC247" s="7">
         <f t="shared" si="3"/>
@@ -10555,18 +10152,18 @@
         <v>Vanuatu</v>
       </c>
     </row>
-    <row r="248" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y248" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z248" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AA248" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AB248" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC248" s="7">
         <f t="shared" si="3"/>
@@ -10581,18 +10178,18 @@
         <v>Viet Nam</v>
       </c>
     </row>
-    <row r="249" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y249" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z249" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AA249" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AB249" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC249" s="7">
         <f t="shared" si="3"/>
@@ -10607,18 +10204,18 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y250" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z250" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AA250" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AB250" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC250" s="7">
         <f t="shared" si="3"/>
@@ -10634,34 +10231,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bZEkI0BOBzqJRQ9QXgUaVp45S24G9eXXKhWlDFlnsD+yS0PDvCqeWGLOIQlFGSJi2+II24v/Cak2TaJuwZtYOA==" saltValue="5jp80NYKaIjVsv2OY9AeYg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
-  <protectedRanges>
-    <protectedRange sqref="I4 Q8:R15 D8:P9 D12:D13 E13:P13 F10:P12 E12 H14:P14 D16:G16 D22:G22" name="Range1"/>
-  </protectedRanges>
-  <mergeCells count="22">
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fO6q0Yu2FzpEogxOyELGBQltW7BMuPwxkbRJZ/V5/WC32ra8zMi0Bv7u1y4UbEavwU/qBKvT1qidPD/KGuCS4w==" saltValue="c3cPoRh7DaTsQmBOyxE2wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="13">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B11:G12"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G10">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10674,13 +10264,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:colOff>713014</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>277586</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>10886</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -10699,15 +10289,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>108857</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1314450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>223157</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>402771</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -10723,81 +10313,82 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="10.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="7"/>
+    <col min="2" max="2" width="10.84375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.3828125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.3046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.61328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.3828125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.69140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="10" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="11.53515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.84375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.15234375" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.15234375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="17" t="e">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="16" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -10819,191 +10410,195 @@
         <f>Finance!I4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="L6" s="8"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>767</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="53" t="s">
         <v>792</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47" t="s">
-        <v>793</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>794</v>
-      </c>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="46"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="50" t="s">
+        <v>781</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>783</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="49"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="N9" s="17" t="str">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="N9" s="16" t="str">
         <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B11" s="10">
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B12" s="10">
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B13" s="10">
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B14" s="10">
         <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B15" s="10">
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VlLZqDHs+uWhCYUxhTHubZHCrWLdPdj909ZrXU2/d3z9/t6K3r5wAJXGndiLpSKO8j3aD5Ijh9Ixua0/8QNL7w==" saltValue="Zh1wJo23TupalaTnzMNqXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="D7:E7"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ys73xpbYcj9ny2R+T9BhiXLE6JTQwXNNTv0+Bdulxh/y3jLOKuqcqPkj3hxIKFe3Mzgs3j24jww+CHASK3WyxQ==" saltValue="4SzlIW9D1I3YMFqLi8VaHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G15">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.53515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="16.42578125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="43" width="9.140625" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="38.84375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3828125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3828125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.3828125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.53515625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="16.3828125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="18.3046875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.3828125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.15234375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="43" width="9.15234375" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:28" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -11012,16 +10607,16 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>795</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+    <row r="2" spans="2:28" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -11034,7 +10629,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -11050,7 +10645,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -11073,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
@@ -11089,58 +10684,64 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+    <row r="6" spans="2:28" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="2:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="C6" s="56" t="s">
+        <v>791</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>793</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="2:28" ht="51.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>795</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>796</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -11148,262 +10749,241 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-    </row>
-    <row r="9" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+    </row>
+    <row r="9" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>765</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-    </row>
-    <row r="10" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="C10" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+    </row>
+    <row r="11" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+    </row>
+    <row r="13" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-    </row>
-    <row r="11" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <v>4</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="C13" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+    </row>
+    <row r="14" spans="2:28" ht="14.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-    </row>
-    <row r="12" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>5</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-    </row>
-    <row r="13" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
-        <v>6</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-    </row>
-    <row r="14" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
-        <v>7</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-    </row>
-    <row r="15" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-    </row>
-    <row r="16" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+    </row>
+    <row r="15" spans="2:28" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+    </row>
+    <row r="16" spans="2:28" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -11419,11 +10999,11 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -11435,7 +11015,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -11451,7 +11031,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -11467,7 +11047,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -11483,7 +11063,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -11498,7 +11078,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -11513,7 +11093,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -11528,7 +11108,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -11543,7 +11123,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -11558,7 +11138,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -11573,7 +11153,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -11588,7 +11168,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -11603,7 +11183,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -11618,7 +11198,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -11633,7 +11213,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -11648,7 +11228,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -11663,7 +11243,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -11678,7 +11258,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -11693,7 +11273,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -11708,7 +11288,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -11723,7 +11303,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -11738,7 +11318,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -11753,7 +11333,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -11768,7 +11348,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -11783,7 +11363,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -11798,7 +11378,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -11813,7 +11393,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -11828,7 +11408,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -11843,7 +11423,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -11858,7 +11438,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -11873,7 +11453,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -11888,7 +11468,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -11903,7 +11483,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11918,7 +11498,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11933,178 +11513,297 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d3T4XKhIaUHyus30OkxfKs24yRtzk9b4iIMpKLLabuwwsvJ+pj8MejMjoxLzP1JZpS/y0F7q8wFFjfTl+Xwnxw==" saltValue="/VtYar7KGo+nbpdYaM60AA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g00QE49gOliku2bMG1bezHIj6TLrIH/WF3VcrjG4lblgqaeGZPFvleHieDc1PsG6yJ5wWRnIcKXjL9R343V5uw==" saltValue="eqGK0CDzEoDGpOeZD2w9jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:H14">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1409700</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>704850</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId6" name="Check Box 44">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>704850</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId7" name="Check Box 46">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>704850</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId8" name="Check Box 47">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>704850</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId9" name="Check Box 48">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>704850</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1175" r:id="rId10" name="Check Box 151">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>704850</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.15234375" style="7"/>
+    <col min="2" max="2" width="10.84375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.3828125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.3046875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.921875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.3828125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.69140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.84375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.15234375" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.15234375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="16" t="e">
+        <f>Finance!V2</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>Finance!V1</f>
+        <v/>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>Finance!F4</f>
+        <v/>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <f>Finance!I4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="L6" s="8"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>792</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>764</v>
+      </c>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="N9" s="16" t="str">
+        <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="37" t="s">
+        <v>771</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B17" s="10">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="p0SUYCl5CzoXmioTOq//ZzBD7qWCF8Gq4UxXiIV4glM0JAc3VMMsXC5C81rk/Lb2k1uQurepUJSz4V3qIqiJ2Q==" saltValue="/SZS1aXX8PIJOIN1x+SQvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="7">
+    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G17">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/Module_4_Template.xlsx
+++ b/templates/Module_4_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391"/>
   </bookViews>
   <sheets>
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Medical Doctors</t>
   </si>
   <si>
-    <t>Specialist Medical Practitioners</t>
-  </si>
-  <si>
     <t>Nursing Professionals</t>
   </si>
   <si>
@@ -2314,9 +2311,6 @@
   </si>
   <si>
     <t>VNM</t>
-  </si>
-  <si>
-    <t>General Medical Practitioners</t>
   </si>
   <si>
     <t>Private</t>
@@ -2383,22 +2377,10 @@
     <t>Recurrent costs of qualified educators (4-07)</t>
   </si>
   <si>
-    <t xml:space="preserve"> General Paediatricians Practitioner</t>
-  </si>
-  <si>
     <t>Obstetricians and Gynaecologists Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve"> Psychiatrists Practitioner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Medical group of Specialists Practitioner </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Surgical group of Specialists Practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other Specialists Practitioner</t>
   </si>
   <si>
     <t>Medical specialist
@@ -2433,6 +2415,24 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">    General Medical Practitioners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Specialist Medical Practitioners</t>
+  </si>
+  <si>
+    <t>General Paediatricians Practitioner</t>
+  </si>
+  <si>
+    <t>Psychiatrists Practitioner</t>
+  </si>
+  <si>
+    <t>Surgical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>Other Specialists Practitioner</t>
   </si>
 </sst>
 </file>
@@ -2836,6 +2836,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2857,16 +2867,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2980,7 +2980,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$V$17" fmlaRange="$V$13:$V$16" noThreeD="1" sel="4" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$V$17" fmlaRange="$V$13:$V$16" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3388,8 +3388,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BZ250"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3418,16 +3418,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3440,34 +3440,34 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="14" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="2" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>780</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -3486,16 +3486,16 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="AC2" s="7">
         <f>--ISNUMBER(IFERROR(SEARCH($V$1,Y2,1),""))</f>
@@ -3535,16 +3535,16 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AA3" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="AB3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC3" s="7">
         <f t="shared" ref="AC3:AC67" si="0">--ISNUMBER(IFERROR(SEARCH($V$1,Y3,1),""))</f>
@@ -3575,16 +3575,16 @@
       </c>
       <c r="I4" s="13"/>
       <c r="Y4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="AA4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC4" s="7">
         <f t="shared" si="0"/>
@@ -3618,16 +3618,16 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="Y5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AA5" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="AB5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="0"/>
@@ -3656,19 +3656,19 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
       <c r="Y6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="AA6" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="AB6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC6" s="7">
         <f t="shared" si="0"/>
@@ -3684,20 +3684,20 @@
       </c>
     </row>
     <row r="7" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B7" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>767</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>770</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>764</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>768</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>762</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="N7" s="34"/>
@@ -3708,16 +3708,16 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
       <c r="Y7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AA7" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="AB7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC7" s="7">
         <f t="shared" si="0"/>
@@ -3733,17 +3733,17 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="48"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>771</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>773</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -3755,16 +3755,16 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
       <c r="Y8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="AA8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="AA8" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="AB8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC8" s="7">
         <f t="shared" si="0"/>
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -3800,16 +3800,16 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
       <c r="Y9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="AA9" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="AB9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC9" s="7">
         <f t="shared" si="0"/>
@@ -3829,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -3845,16 +3845,16 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
       <c r="Y10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AA10" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="AB10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="0"/>
@@ -3870,12 +3870,12 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="N11" s="19"/>
@@ -3886,16 +3886,16 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="Y11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="AA11" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="AB11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC11" s="7">
         <f t="shared" si="0"/>
@@ -3911,12 +3911,12 @@
       </c>
     </row>
     <row r="12" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="N12" s="19"/>
@@ -3927,16 +3927,16 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="Y12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z12" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="Z12" s="7" t="s">
+      <c r="AA12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="AA12" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="AB12" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC12" s="7">
         <f t="shared" si="0"/>
@@ -3952,34 +3952,34 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>768</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39" t="s">
-        <v>769</v>
-      </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="44"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Y13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="AA13" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="AA13" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="AB13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC13" s="7">
         <f t="shared" si="0"/>
@@ -3995,29 +3995,29 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="44"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="V14" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="Y14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="AA14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="AA14" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="AB14" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC14" s="7">
         <f t="shared" si="0"/>
@@ -4037,29 +4037,29 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+        <v>777</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="V15" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA15" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="AA15" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="AB15" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC15" s="7">
         <f t="shared" si="0"/>
@@ -4076,19 +4076,19 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.4">
       <c r="V16" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="AA16" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="AB16" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC16" s="7">
         <f t="shared" si="0"/>
@@ -4105,28 +4105,28 @@
     </row>
     <row r="17" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Q17" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="V17" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AA17" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="AB17" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC17" s="7">
         <f t="shared" si="0"/>
@@ -4152,19 +4152,19 @@
       </c>
       <c r="S18" s="7" t="str">
         <f>IF(V17=4,"True","")</f>
-        <v>True</v>
+        <v/>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z18" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA18" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="AA18" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="AB18" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC18" s="7">
         <f t="shared" si="0"/>
@@ -4181,16 +4181,16 @@
     </row>
     <row r="19" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="AA19" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="AB19" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC19" s="7">
         <f t="shared" si="0"/>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="20" spans="17:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="AA20" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="AB20" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC20" s="7">
         <f t="shared" si="0"/>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="21" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA21" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="AA21" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="AB21" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC21" s="7">
         <f t="shared" si="0"/>
@@ -4259,16 +4259,16 @@
     </row>
     <row r="22" spans="17:31" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA22" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AA22" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="AB22" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC22" s="7">
         <f t="shared" si="0"/>
@@ -4285,16 +4285,16 @@
     </row>
     <row r="23" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA23" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="AA23" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="AB23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC23" s="7">
         <f t="shared" si="0"/>
@@ -4311,16 +4311,16 @@
     </row>
     <row r="24" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA24" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="AA24" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="AB24" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC24" s="7">
         <f t="shared" si="0"/>
@@ -4337,16 +4337,16 @@
     </row>
     <row r="25" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA25" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AA25" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="AB25" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC25" s="7">
         <f t="shared" si="0"/>
@@ -4363,16 +4363,16 @@
     </row>
     <row r="26" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA26" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AA26" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="AB26" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC26" s="7">
         <f t="shared" si="0"/>
@@ -4389,16 +4389,16 @@
     </row>
     <row r="27" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z27" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA27" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AA27" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="AB27" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC27" s="7">
         <f t="shared" si="0"/>
@@ -4415,16 +4415,16 @@
     </row>
     <row r="28" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA28" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="AA28" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="AB28" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC28" s="7">
         <f t="shared" si="0"/>
@@ -4441,16 +4441,16 @@
     </row>
     <row r="29" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA29" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AA29" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="AB29" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC29" s="7">
         <f t="shared" si="0"/>
@@ -4467,16 +4467,16 @@
     </row>
     <row r="30" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA30" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="AA30" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="AB30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC30" s="7">
         <f t="shared" si="0"/>
@@ -4493,16 +4493,16 @@
     </row>
     <row r="31" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA31" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="AA31" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="AB31" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC31" s="7">
         <f t="shared" si="0"/>
@@ -4519,16 +4519,16 @@
     </row>
     <row r="32" spans="17:31" x14ac:dyDescent="0.4">
       <c r="Y32" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA32" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="AA32" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="AB32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC32" s="7">
         <f t="shared" si="0"/>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="33" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y33" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z33" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA33" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="AA33" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="AB33" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC33" s="7">
         <f t="shared" si="0"/>
@@ -4571,16 +4571,16 @@
     </row>
     <row r="34" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z34" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA34" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="AA34" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="AB34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC34" s="7">
         <f t="shared" si="0"/>
@@ -4597,16 +4597,16 @@
     </row>
     <row r="35" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y35" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z35" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA35" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AA35" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="AB35" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC35" s="7">
         <f t="shared" si="0"/>
@@ -4623,16 +4623,16 @@
     </row>
     <row r="36" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z36" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA36" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="AA36" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="AB36" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC36" s="7">
         <f t="shared" si="0"/>
@@ -4649,16 +4649,16 @@
     </row>
     <row r="37" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA37" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="AA37" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="AB37" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC37" s="7">
         <f t="shared" si="0"/>
@@ -4675,16 +4675,16 @@
     </row>
     <row r="38" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA38" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AA38" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="AB38" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC38" s="7">
         <f t="shared" si="0"/>
@@ -4701,16 +4701,16 @@
     </row>
     <row r="39" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y39" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA39" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AA39" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="AB39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC39" s="7">
         <f t="shared" si="0"/>
@@ -4727,16 +4727,16 @@
     </row>
     <row r="40" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y40" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AA40" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="AB40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC40" s="7">
         <f t="shared" si="0"/>
@@ -4753,16 +4753,16 @@
     </row>
     <row r="41" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y41" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA41" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="AA41" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="AB41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC41" s="7">
         <f t="shared" si="0"/>
@@ -4779,16 +4779,16 @@
     </row>
     <row r="42" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z42" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="Z42" s="7" t="s">
+      <c r="AA42" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="AA42" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="AB42" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC42" s="7">
         <f t="shared" si="0"/>
@@ -4805,16 +4805,16 @@
     </row>
     <row r="43" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z43" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA43" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="AA43" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="AB43" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC43" s="7">
         <f t="shared" si="0"/>
@@ -4831,16 +4831,16 @@
     </row>
     <row r="44" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y44" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA44" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="AA44" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="AB44" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC44" s="7">
         <f t="shared" si="0"/>
@@ -4857,16 +4857,16 @@
     </row>
     <row r="45" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z45" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA45" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="AA45" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="AB45" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC45" s="7">
         <f t="shared" si="0"/>
@@ -4883,16 +4883,16 @@
     </row>
     <row r="46" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y46" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z46" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA46" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AA46" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="AB46" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC46" s="7">
         <f t="shared" si="0"/>
@@ -4909,16 +4909,16 @@
     </row>
     <row r="47" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y47" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z47" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA47" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AA47" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="AB47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC47" s="7">
         <f t="shared" si="0"/>
@@ -4935,16 +4935,16 @@
     </row>
     <row r="48" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y48" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z48" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA48" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="AA48" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="AB48" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC48" s="7">
         <f t="shared" si="0"/>
@@ -4961,16 +4961,16 @@
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y49" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z49" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA49" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="AA49" s="7" t="s">
+      <c r="AB49" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="AB49" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="AC49" s="7">
         <f t="shared" si="0"/>
@@ -4987,16 +4987,16 @@
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z50" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA50" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="AA50" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="AB50" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC50" s="7">
         <f t="shared" si="0"/>
@@ -5013,16 +5013,16 @@
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y51" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z51" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="Z51" s="7" t="s">
+      <c r="AA51" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="AA51" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="AB51" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC51" s="7">
         <f t="shared" si="0"/>
@@ -5039,16 +5039,16 @@
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y52" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z52" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA52" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="AA52" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="AB52" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC52" s="7">
         <f t="shared" si="0"/>
@@ -5065,16 +5065,16 @@
     </row>
     <row r="53" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y53" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z53" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA53" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="AA53" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="AB53" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC53" s="7">
         <f t="shared" si="0"/>
@@ -5091,16 +5091,16 @@
     </row>
     <row r="54" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y54" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z54" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA54" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="AA54" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="AB54" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC54" s="7">
         <f t="shared" si="0"/>
@@ -5141,16 +5141,16 @@
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z57" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA57" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AA57" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="AB57" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC57" s="7">
         <f t="shared" si="0"/>
@@ -5214,16 +5214,16 @@
     </row>
     <row r="58" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y58" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z58" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA58" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="AA58" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="AB58" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC58" s="7">
         <f t="shared" si="0"/>
@@ -5240,16 +5240,16 @@
     </row>
     <row r="59" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y59" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z59" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA59" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="AA59" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="AB59" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC59" s="7">
         <f t="shared" si="0"/>
@@ -5266,16 +5266,16 @@
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y60" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z60" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA60" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="AA60" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="AB60" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC60" s="7">
         <f t="shared" si="0"/>
@@ -5292,16 +5292,16 @@
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y61" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z61" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA61" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="AA61" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="AB61" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC61" s="7">
         <f t="shared" si="0"/>
@@ -5318,16 +5318,16 @@
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y62" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z62" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA62" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="AA62" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="AB62" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC62" s="7">
         <f t="shared" si="0"/>
@@ -5344,16 +5344,16 @@
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y63" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z63" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA63" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="AA63" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="AB63" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC63" s="7">
         <f t="shared" si="0"/>
@@ -5370,16 +5370,16 @@
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y64" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z64" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA64" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="AA64" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="AB64" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC64" s="7">
         <f t="shared" si="0"/>
@@ -5396,16 +5396,16 @@
     </row>
     <row r="65" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y65" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z65" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA65" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="AA65" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="AB65" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC65" s="7">
         <f t="shared" si="0"/>
@@ -5422,16 +5422,16 @@
     </row>
     <row r="66" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y66" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z66" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA66" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="AA66" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="AB66" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC66" s="7">
         <f t="shared" si="0"/>
@@ -5448,16 +5448,16 @@
     </row>
     <row r="67" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y67" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z67" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA67" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="AA67" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="AB67" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC67" s="7">
         <f t="shared" si="0"/>
@@ -5474,16 +5474,16 @@
     </row>
     <row r="68" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y68" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA68" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="AA68" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="AB68" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC68" s="7">
         <f t="shared" ref="AC68:AC131" si="1">--ISNUMBER(IFERROR(SEARCH($V$1,Y68,1),""))</f>
@@ -5500,16 +5500,16 @@
     </row>
     <row r="69" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y69" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z69" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA69" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="AA69" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="AB69" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC69" s="7">
         <f t="shared" si="1"/>
@@ -5526,16 +5526,16 @@
     </row>
     <row r="70" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z70" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA70" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="AA70" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="AB70" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC70" s="7">
         <f t="shared" si="1"/>
@@ -5552,16 +5552,16 @@
     </row>
     <row r="71" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y71" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z71" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA71" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="AA71" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="AB71" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC71" s="7">
         <f t="shared" si="1"/>
@@ -5578,16 +5578,16 @@
     </row>
     <row r="72" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y72" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z72" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA72" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="AA72" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="AB72" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC72" s="7">
         <f t="shared" si="1"/>
@@ -5604,16 +5604,16 @@
     </row>
     <row r="73" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y73" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z73" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA73" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="AA73" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="AB73" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC73" s="7">
         <f t="shared" si="1"/>
@@ -5630,16 +5630,16 @@
     </row>
     <row r="74" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y74" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z74" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA74" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="AA74" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="AB74" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC74" s="7">
         <f t="shared" si="1"/>
@@ -5656,16 +5656,16 @@
     </row>
     <row r="75" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y75" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z75" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA75" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="AA75" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="AB75" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC75" s="7">
         <f t="shared" si="1"/>
@@ -5682,16 +5682,16 @@
     </row>
     <row r="76" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y76" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z76" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA76" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="AA76" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="AB76" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC76" s="7">
         <f t="shared" si="1"/>
@@ -5708,16 +5708,16 @@
     </row>
     <row r="77" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y77" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z77" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA77" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="AA77" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="AB77" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC77" s="7">
         <f t="shared" si="1"/>
@@ -5734,16 +5734,16 @@
     </row>
     <row r="78" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y78" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z78" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA78" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="AA78" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="AB78" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC78" s="7">
         <f t="shared" si="1"/>
@@ -5760,16 +5760,16 @@
     </row>
     <row r="79" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y79" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z79" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA79" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="AA79" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="AB79" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC79" s="7">
         <f t="shared" si="1"/>
@@ -5786,16 +5786,16 @@
     </row>
     <row r="80" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y80" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z80" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA80" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="AA80" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="AB80" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC80" s="7">
         <f t="shared" si="1"/>
@@ -5812,16 +5812,16 @@
     </row>
     <row r="81" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y81" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z81" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA81" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="AA81" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="AB81" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC81" s="7">
         <f t="shared" si="1"/>
@@ -5838,16 +5838,16 @@
     </row>
     <row r="82" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y82" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z82" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA82" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="AA82" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="AB82" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC82" s="7">
         <f t="shared" si="1"/>
@@ -5864,16 +5864,16 @@
     </row>
     <row r="83" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y83" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z83" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA83" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="AA83" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="AB83" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC83" s="7">
         <f t="shared" si="1"/>
@@ -5890,16 +5890,16 @@
     </row>
     <row r="84" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y84" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z84" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA84" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="AA84" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="AB84" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC84" s="7">
         <f t="shared" si="1"/>
@@ -5916,16 +5916,16 @@
     </row>
     <row r="85" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y85" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z85" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA85" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="AA85" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="AB85" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC85" s="7">
         <f t="shared" si="1"/>
@@ -5942,16 +5942,16 @@
     </row>
     <row r="86" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y86" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z86" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA86" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="AA86" s="7" t="s">
+      <c r="AB86" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="AB86" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="AC86" s="7">
         <f t="shared" si="1"/>
@@ -5968,16 +5968,16 @@
     </row>
     <row r="87" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y87" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z87" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA87" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="AA87" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="AB87" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC87" s="7">
         <f t="shared" si="1"/>
@@ -5994,16 +5994,16 @@
     </row>
     <row r="88" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y88" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z88" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA88" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="AA88" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="AB88" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC88" s="7">
         <f t="shared" si="1"/>
@@ -6020,16 +6020,16 @@
     </row>
     <row r="89" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y89" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z89" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA89" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="AA89" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="AB89" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC89" s="7">
         <f t="shared" si="1"/>
@@ -6046,16 +6046,16 @@
     </row>
     <row r="90" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y90" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA90" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="AA90" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="AB90" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC90" s="7">
         <f t="shared" si="1"/>
@@ -6072,16 +6072,16 @@
     </row>
     <row r="91" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y91" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z91" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA91" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="AA91" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="AB91" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC91" s="7">
         <f t="shared" si="1"/>
@@ -6098,16 +6098,16 @@
     </row>
     <row r="92" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y92" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z92" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA92" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="AA92" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="AB92" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC92" s="7">
         <f t="shared" si="1"/>
@@ -6124,16 +6124,16 @@
     </row>
     <row r="93" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y93" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z93" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA93" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="AA93" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="AB93" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC93" s="7">
         <f t="shared" si="1"/>
@@ -6150,16 +6150,16 @@
     </row>
     <row r="94" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y94" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z94" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA94" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="AA94" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="AB94" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC94" s="7">
         <f t="shared" si="1"/>
@@ -6176,16 +6176,16 @@
     </row>
     <row r="95" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y95" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z95" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="Z95" s="7" t="s">
+      <c r="AA95" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="AA95" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="AB95" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC95" s="7">
         <f t="shared" si="1"/>
@@ -6202,16 +6202,16 @@
     </row>
     <row r="96" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y96" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z96" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA96" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="AA96" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="AB96" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC96" s="7">
         <f t="shared" si="1"/>
@@ -6228,16 +6228,16 @@
     </row>
     <row r="97" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y97" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z97" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA97" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AA97" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="AB97" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC97" s="7">
         <f t="shared" si="1"/>
@@ -6254,16 +6254,16 @@
     </row>
     <row r="98" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y98" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z98" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA98" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="AA98" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="AB98" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC98" s="7">
         <f t="shared" si="1"/>
@@ -6280,16 +6280,16 @@
     </row>
     <row r="99" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y99" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z99" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="Z99" s="7" t="s">
+      <c r="AA99" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="AA99" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="AB99" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC99" s="7">
         <f t="shared" si="1"/>
@@ -6306,16 +6306,16 @@
     </row>
     <row r="100" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y100" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z100" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA100" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="AA100" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="AB100" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC100" s="7">
         <f t="shared" si="1"/>
@@ -6332,16 +6332,16 @@
     </row>
     <row r="101" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y101" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z101" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA101" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AA101" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="AB101" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC101" s="7">
         <f t="shared" si="1"/>
@@ -6358,16 +6358,16 @@
     </row>
     <row r="102" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y102" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z102" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA102" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="AA102" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="AB102" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC102" s="7">
         <f t="shared" si="1"/>
@@ -6384,16 +6384,16 @@
     </row>
     <row r="103" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y103" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z103" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA103" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="AA103" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="AB103" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC103" s="7">
         <f t="shared" si="1"/>
@@ -6410,16 +6410,16 @@
     </row>
     <row r="104" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y104" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z104" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA104" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AA104" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="AB104" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC104" s="7">
         <f t="shared" si="1"/>
@@ -6436,16 +6436,16 @@
     </row>
     <row r="105" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y105" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z105" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA105" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="AA105" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="AB105" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC105" s="7">
         <f t="shared" si="1"/>
@@ -6462,16 +6462,16 @@
     </row>
     <row r="106" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y106" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z106" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA106" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="AA106" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="AB106" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC106" s="7">
         <f t="shared" si="1"/>
@@ -6488,16 +6488,16 @@
     </row>
     <row r="107" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y107" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z107" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA107" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="AA107" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="AB107" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC107" s="7">
         <f t="shared" si="1"/>
@@ -6514,16 +6514,16 @@
     </row>
     <row r="108" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y108" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z108" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA108" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="AA108" s="7" t="s">
+      <c r="AB108" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="AB108" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="AC108" s="7">
         <f t="shared" si="1"/>
@@ -6540,16 +6540,16 @@
     </row>
     <row r="109" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y109" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z109" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA109" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="AA109" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="AB109" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC109" s="7">
         <f t="shared" si="1"/>
@@ -6566,16 +6566,16 @@
     </row>
     <row r="110" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y110" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z110" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA110" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="AA110" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="AB110" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC110" s="7">
         <f t="shared" si="1"/>
@@ -6592,16 +6592,16 @@
     </row>
     <row r="111" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y111" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z111" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA111" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="AA111" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="AB111" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC111" s="7">
         <f t="shared" si="1"/>
@@ -6618,16 +6618,16 @@
     </row>
     <row r="112" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y112" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z112" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA112" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="AA112" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="AB112" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC112" s="7">
         <f t="shared" si="1"/>
@@ -6644,16 +6644,16 @@
     </row>
     <row r="113" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y113" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z113" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA113" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="AA113" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="AB113" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC113" s="7">
         <f t="shared" si="1"/>
@@ -6670,16 +6670,16 @@
     </row>
     <row r="114" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y114" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z114" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA114" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="AA114" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="AB114" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC114" s="7">
         <f t="shared" si="1"/>
@@ -6696,16 +6696,16 @@
     </row>
     <row r="115" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y115" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z115" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA115" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="AA115" s="7" t="s">
-        <v>433</v>
-      </c>
       <c r="AB115" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC115" s="7">
         <f t="shared" si="1"/>
@@ -6722,16 +6722,16 @@
     </row>
     <row r="116" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y116" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z116" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA116" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="AA116" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="AB116" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC116" s="7">
         <f t="shared" si="1"/>
@@ -6748,16 +6748,16 @@
     </row>
     <row r="117" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y117" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z117" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA117" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="AA117" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="AB117" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC117" s="7">
         <f t="shared" si="1"/>
@@ -6774,16 +6774,16 @@
     </row>
     <row r="118" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y118" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z118" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA118" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="AA118" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="AB118" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC118" s="7">
         <f t="shared" si="1"/>
@@ -6800,16 +6800,16 @@
     </row>
     <row r="119" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y119" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z119" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA119" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="AA119" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="AB119" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC119" s="7">
         <f t="shared" si="1"/>
@@ -6826,16 +6826,16 @@
     </row>
     <row r="120" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y120" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z120" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA120" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="AA120" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="AB120" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC120" s="7">
         <f t="shared" si="1"/>
@@ -6852,16 +6852,16 @@
     </row>
     <row r="121" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y121" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z121" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA121" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="AA121" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="AB121" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC121" s="7">
         <f t="shared" si="1"/>
@@ -6878,16 +6878,16 @@
     </row>
     <row r="122" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y122" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z122" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA122" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="AA122" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="AB122" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC122" s="7">
         <f t="shared" si="1"/>
@@ -6904,16 +6904,16 @@
     </row>
     <row r="123" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y123" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z123" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA123" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="AA123" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="AB123" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC123" s="7">
         <f t="shared" si="1"/>
@@ -6930,16 +6930,16 @@
     </row>
     <row r="124" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y124" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z124" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA124" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="AA124" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="AB124" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC124" s="7">
         <f t="shared" si="1"/>
@@ -6956,16 +6956,16 @@
     </row>
     <row r="125" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y125" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z125" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA125" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="AA125" s="7" t="s">
-        <v>453</v>
-      </c>
       <c r="AB125" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC125" s="7">
         <f t="shared" si="1"/>
@@ -6982,16 +6982,16 @@
     </row>
     <row r="126" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y126" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z126" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA126" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="AA126" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="AB126" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC126" s="7">
         <f t="shared" si="1"/>
@@ -7008,16 +7008,16 @@
     </row>
     <row r="127" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y127" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z127" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA127" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="AA127" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="AB127" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC127" s="7">
         <f t="shared" si="1"/>
@@ -7034,16 +7034,16 @@
     </row>
     <row r="128" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y128" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z128" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA128" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="AA128" s="7" t="s">
-        <v>459</v>
-      </c>
       <c r="AB128" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC128" s="7">
         <f t="shared" si="1"/>
@@ -7060,16 +7060,16 @@
     </row>
     <row r="129" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y129" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z129" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA129" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="AA129" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="AB129" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC129" s="7">
         <f t="shared" si="1"/>
@@ -7086,16 +7086,16 @@
     </row>
     <row r="130" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y130" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z130" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA130" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="AA130" s="7" t="s">
-        <v>463</v>
-      </c>
       <c r="AB130" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC130" s="7">
         <f t="shared" si="1"/>
@@ -7112,16 +7112,16 @@
     </row>
     <row r="131" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y131" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z131" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA131" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="AA131" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="AB131" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC131" s="7">
         <f t="shared" si="1"/>
@@ -7138,16 +7138,16 @@
     </row>
     <row r="132" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y132" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z132" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA132" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="AA132" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="AB132" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC132" s="7">
         <f t="shared" ref="AC132:AC195" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y132,1),""))</f>
@@ -7164,16 +7164,16 @@
     </row>
     <row r="133" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y133" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z133" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA133" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="AA133" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="AB133" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC133" s="7">
         <f t="shared" si="2"/>
@@ -7190,16 +7190,16 @@
     </row>
     <row r="134" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y134" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z134" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA134" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="AA134" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="AB134" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC134" s="7">
         <f t="shared" si="2"/>
@@ -7216,16 +7216,16 @@
     </row>
     <row r="135" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y135" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z135" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA135" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="AA135" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="AB135" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC135" s="7">
         <f t="shared" si="2"/>
@@ -7242,16 +7242,16 @@
     </row>
     <row r="136" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y136" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z136" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA136" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="AA136" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="AB136" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC136" s="7">
         <f t="shared" si="2"/>
@@ -7268,16 +7268,16 @@
     </row>
     <row r="137" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y137" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z137" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA137" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="AA137" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="AB137" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC137" s="7">
         <f t="shared" si="2"/>
@@ -7294,16 +7294,16 @@
     </row>
     <row r="138" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y138" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z138" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA138" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="AA138" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="AB138" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC138" s="7">
         <f t="shared" si="2"/>
@@ -7320,16 +7320,16 @@
     </row>
     <row r="139" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y139" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z139" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA139" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="AA139" s="7" t="s">
-        <v>481</v>
-      </c>
       <c r="AB139" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC139" s="7">
         <f t="shared" si="2"/>
@@ -7346,16 +7346,16 @@
     </row>
     <row r="140" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y140" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z140" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA140" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="AA140" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="AB140" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC140" s="7">
         <f t="shared" si="2"/>
@@ -7372,16 +7372,16 @@
     </row>
     <row r="141" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y141" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z141" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA141" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="AA141" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="AB141" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC141" s="7">
         <f t="shared" si="2"/>
@@ -7398,16 +7398,16 @@
     </row>
     <row r="142" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y142" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z142" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA142" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="AA142" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="AB142" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC142" s="7">
         <f t="shared" si="2"/>
@@ -7424,16 +7424,16 @@
     </row>
     <row r="143" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y143" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z143" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA143" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="AA143" s="7" t="s">
-        <v>489</v>
-      </c>
       <c r="AB143" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC143" s="7">
         <f t="shared" si="2"/>
@@ -7450,16 +7450,16 @@
     </row>
     <row r="144" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y144" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z144" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA144" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="AA144" s="7" t="s">
-        <v>491</v>
-      </c>
       <c r="AB144" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC144" s="7">
         <f t="shared" si="2"/>
@@ -7476,16 +7476,16 @@
     </row>
     <row r="145" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y145" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z145" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA145" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="AA145" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="AB145" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC145" s="7">
         <f t="shared" si="2"/>
@@ -7502,16 +7502,16 @@
     </row>
     <row r="146" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y146" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z146" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA146" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="AA146" s="7" t="s">
-        <v>495</v>
-      </c>
       <c r="AB146" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC146" s="7">
         <f t="shared" si="2"/>
@@ -7528,16 +7528,16 @@
     </row>
     <row r="147" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y147" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z147" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA147" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="AA147" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="AB147" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC147" s="7">
         <f t="shared" si="2"/>
@@ -7554,16 +7554,16 @@
     </row>
     <row r="148" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y148" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z148" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA148" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="AA148" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="AB148" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC148" s="7">
         <f t="shared" si="2"/>
@@ -7580,16 +7580,16 @@
     </row>
     <row r="149" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y149" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z149" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA149" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="AA149" s="7" t="s">
-        <v>501</v>
-      </c>
       <c r="AB149" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC149" s="7">
         <f t="shared" si="2"/>
@@ -7606,16 +7606,16 @@
     </row>
     <row r="150" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y150" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z150" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA150" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="AA150" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="AB150" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC150" s="7">
         <f t="shared" si="2"/>
@@ -7632,16 +7632,16 @@
     </row>
     <row r="151" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y151" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z151" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA151" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="AA151" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="AB151" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC151" s="7">
         <f t="shared" si="2"/>
@@ -7658,16 +7658,16 @@
     </row>
     <row r="152" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y152" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z152" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA152" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="AA152" s="7" t="s">
-        <v>507</v>
-      </c>
       <c r="AB152" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC152" s="7">
         <f t="shared" si="2"/>
@@ -7684,16 +7684,16 @@
     </row>
     <row r="153" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y153" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z153" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA153" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="AA153" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="AB153" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC153" s="7">
         <f t="shared" si="2"/>
@@ -7710,16 +7710,16 @@
     </row>
     <row r="154" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y154" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z154" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA154" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="AA154" s="7" t="s">
-        <v>511</v>
-      </c>
       <c r="AB154" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC154" s="7">
         <f t="shared" si="2"/>
@@ -7736,16 +7736,16 @@
     </row>
     <row r="155" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y155" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z155" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="Z155" s="7" t="s">
+      <c r="AA155" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="AA155" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="AB155" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC155" s="7">
         <f t="shared" si="2"/>
@@ -7762,16 +7762,16 @@
     </row>
     <row r="156" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y156" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z156" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA156" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="AA156" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="AB156" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC156" s="7">
         <f t="shared" si="2"/>
@@ -7788,16 +7788,16 @@
     </row>
     <row r="157" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y157" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z157" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA157" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="AA157" s="7" t="s">
-        <v>518</v>
-      </c>
       <c r="AB157" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC157" s="7">
         <f t="shared" si="2"/>
@@ -7814,16 +7814,16 @@
     </row>
     <row r="158" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y158" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z158" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA158" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="AA158" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="AB158" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC158" s="7">
         <f t="shared" si="2"/>
@@ -7840,16 +7840,16 @@
     </row>
     <row r="159" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y159" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z159" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="Z159" s="7" t="s">
+      <c r="AA159" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="AA159" s="7" t="s">
-        <v>523</v>
-      </c>
       <c r="AB159" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC159" s="7">
         <f t="shared" si="2"/>
@@ -7866,16 +7866,16 @@
     </row>
     <row r="160" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y160" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z160" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA160" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="AA160" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="AB160" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC160" s="7">
         <f t="shared" si="2"/>
@@ -7892,16 +7892,16 @@
     </row>
     <row r="161" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y161" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z161" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="Z161" s="7" t="s">
+      <c r="AA161" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="AA161" s="7" t="s">
+      <c r="AB161" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="AB161" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="AC161" s="7">
         <f t="shared" si="2"/>
@@ -7918,16 +7918,16 @@
     </row>
     <row r="162" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y162" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z162" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="Z162" s="7" t="s">
+      <c r="AA162" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="AA162" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="AB162" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC162" s="7">
         <f t="shared" si="2"/>
@@ -7944,16 +7944,16 @@
     </row>
     <row r="163" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y163" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z163" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="Z163" s="7" t="s">
+      <c r="AA163" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="AA163" s="7" t="s">
-        <v>535</v>
-      </c>
       <c r="AB163" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC163" s="7">
         <f t="shared" si="2"/>
@@ -7970,16 +7970,16 @@
     </row>
     <row r="164" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y164" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z164" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="Z164" s="7" t="s">
+      <c r="AA164" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="AA164" s="7" t="s">
-        <v>538</v>
-      </c>
       <c r="AB164" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC164" s="7">
         <f t="shared" si="2"/>
@@ -7996,16 +7996,16 @@
     </row>
     <row r="165" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y165" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z165" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="Z165" s="7" t="s">
+      <c r="AA165" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="AA165" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="AB165" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC165" s="7">
         <f t="shared" si="2"/>
@@ -8022,16 +8022,16 @@
     </row>
     <row r="166" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y166" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z166" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="Z166" s="7" t="s">
+      <c r="AA166" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="AA166" s="7" t="s">
-        <v>544</v>
-      </c>
       <c r="AB166" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC166" s="7">
         <f t="shared" si="2"/>
@@ -8048,16 +8048,16 @@
     </row>
     <row r="167" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y167" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z167" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="Z167" s="7" t="s">
+      <c r="AA167" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="AA167" s="7" t="s">
-        <v>547</v>
-      </c>
       <c r="AB167" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC167" s="7">
         <f t="shared" si="2"/>
@@ -8074,16 +8074,16 @@
     </row>
     <row r="168" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y168" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z168" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="Z168" s="7" t="s">
+      <c r="AA168" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="AA168" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="AB168" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC168" s="7">
         <f t="shared" si="2"/>
@@ -8100,16 +8100,16 @@
     </row>
     <row r="169" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y169" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z169" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="Z169" s="7" t="s">
+      <c r="AA169" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="AA169" s="7" t="s">
-        <v>553</v>
-      </c>
       <c r="AB169" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC169" s="7">
         <f t="shared" si="2"/>
@@ -8126,16 +8126,16 @@
     </row>
     <row r="170" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y170" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z170" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="Z170" s="7" t="s">
+      <c r="AA170" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="AA170" s="7" t="s">
-        <v>556</v>
-      </c>
       <c r="AB170" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC170" s="7">
         <f t="shared" si="2"/>
@@ -8152,16 +8152,16 @@
     </row>
     <row r="171" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y171" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z171" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="Z171" s="7" t="s">
+      <c r="AA171" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="AA171" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="AB171" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC171" s="7">
         <f t="shared" si="2"/>
@@ -8178,16 +8178,16 @@
     </row>
     <row r="172" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y172" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z172" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="Z172" s="7" t="s">
+      <c r="AA172" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="AA172" s="7" t="s">
-        <v>562</v>
-      </c>
       <c r="AB172" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC172" s="7">
         <f t="shared" si="2"/>
@@ -8204,16 +8204,16 @@
     </row>
     <row r="173" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y173" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z173" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="Z173" s="7" t="s">
+      <c r="AA173" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="AA173" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="AB173" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC173" s="7">
         <f t="shared" si="2"/>
@@ -8230,16 +8230,16 @@
     </row>
     <row r="174" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y174" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z174" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="Z174" s="7" t="s">
+      <c r="AA174" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="AA174" s="7" t="s">
-        <v>568</v>
-      </c>
       <c r="AB174" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC174" s="7">
         <f t="shared" si="2"/>
@@ -8256,16 +8256,16 @@
     </row>
     <row r="175" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y175" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z175" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="Z175" s="7" t="s">
+      <c r="AA175" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="AA175" s="7" t="s">
-        <v>571</v>
-      </c>
       <c r="AB175" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC175" s="7">
         <f t="shared" si="2"/>
@@ -8282,16 +8282,16 @@
     </row>
     <row r="176" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y176" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z176" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="Z176" s="7" t="s">
+      <c r="AA176" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="AA176" s="7" t="s">
-        <v>574</v>
-      </c>
       <c r="AB176" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC176" s="7">
         <f t="shared" si="2"/>
@@ -8308,16 +8308,16 @@
     </row>
     <row r="177" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y177" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z177" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="Z177" s="7" t="s">
+      <c r="AA177" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="AA177" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="AB177" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC177" s="7">
         <f t="shared" si="2"/>
@@ -8334,16 +8334,16 @@
     </row>
     <row r="178" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y178" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z178" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="Z178" s="7" t="s">
+      <c r="AA178" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="AA178" s="7" t="s">
-        <v>580</v>
-      </c>
       <c r="AB178" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC178" s="7">
         <f t="shared" si="2"/>
@@ -8360,16 +8360,16 @@
     </row>
     <row r="179" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y179" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z179" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="Z179" s="7" t="s">
+      <c r="AA179" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="AA179" s="7" t="s">
-        <v>583</v>
-      </c>
       <c r="AB179" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC179" s="7">
         <f t="shared" si="2"/>
@@ -8386,16 +8386,16 @@
     </row>
     <row r="180" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y180" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z180" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="Z180" s="7" t="s">
+      <c r="AA180" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="AA180" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="AB180" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC180" s="7">
         <f t="shared" si="2"/>
@@ -8412,16 +8412,16 @@
     </row>
     <row r="181" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y181" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z181" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="Z181" s="7" t="s">
+      <c r="AA181" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="AA181" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="AB181" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC181" s="7">
         <f t="shared" si="2"/>
@@ -8438,16 +8438,16 @@
     </row>
     <row r="182" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y182" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z182" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="Z182" s="7" t="s">
+      <c r="AA182" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="AA182" s="7" t="s">
-        <v>592</v>
-      </c>
       <c r="AB182" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC182" s="7">
         <f t="shared" si="2"/>
@@ -8464,16 +8464,16 @@
     </row>
     <row r="183" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y183" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z183" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="Z183" s="7" t="s">
+      <c r="AA183" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="AA183" s="7" t="s">
-        <v>595</v>
-      </c>
       <c r="AB183" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC183" s="7">
         <f t="shared" si="2"/>
@@ -8490,16 +8490,16 @@
     </row>
     <row r="184" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y184" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z184" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="Z184" s="7" t="s">
+      <c r="AA184" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="AA184" s="7" t="s">
-        <v>598</v>
-      </c>
       <c r="AB184" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC184" s="7">
         <f t="shared" si="2"/>
@@ -8516,16 +8516,16 @@
     </row>
     <row r="185" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y185" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z185" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="Z185" s="7" t="s">
+      <c r="AA185" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="AA185" s="7" t="s">
-        <v>601</v>
-      </c>
       <c r="AB185" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC185" s="7">
         <f t="shared" si="2"/>
@@ -8542,16 +8542,16 @@
     </row>
     <row r="186" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y186" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z186" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="Z186" s="7" t="s">
+      <c r="AA186" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="AA186" s="7" t="s">
-        <v>604</v>
-      </c>
       <c r="AB186" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC186" s="7">
         <f t="shared" si="2"/>
@@ -8568,16 +8568,16 @@
     </row>
     <row r="187" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y187" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z187" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="Z187" s="7" t="s">
+      <c r="AA187" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="AA187" s="7" t="s">
-        <v>607</v>
-      </c>
       <c r="AB187" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC187" s="7">
         <f t="shared" si="2"/>
@@ -8594,16 +8594,16 @@
     </row>
     <row r="188" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y188" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z188" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="Z188" s="7" t="s">
+      <c r="AA188" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="AA188" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="AB188" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC188" s="7">
         <f t="shared" si="2"/>
@@ -8620,16 +8620,16 @@
     </row>
     <row r="189" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y189" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z189" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="Z189" s="7" t="s">
+      <c r="AA189" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="AA189" s="7" t="s">
-        <v>613</v>
-      </c>
       <c r="AB189" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC189" s="7">
         <f t="shared" si="2"/>
@@ -8646,16 +8646,16 @@
     </row>
     <row r="190" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y190" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="Z190" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="Z190" s="7" t="s">
+      <c r="AA190" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="AA190" s="7" t="s">
-        <v>616</v>
-      </c>
       <c r="AB190" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC190" s="7">
         <f t="shared" si="2"/>
@@ -8672,16 +8672,16 @@
     </row>
     <row r="191" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y191" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z191" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="Z191" s="7" t="s">
+      <c r="AA191" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="AA191" s="7" t="s">
-        <v>619</v>
-      </c>
       <c r="AB191" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC191" s="7">
         <f t="shared" si="2"/>
@@ -8698,16 +8698,16 @@
     </row>
     <row r="192" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y192" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z192" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="Z192" s="7" t="s">
+      <c r="AA192" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="AA192" s="7" t="s">
-        <v>622</v>
-      </c>
       <c r="AB192" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC192" s="7">
         <f t="shared" si="2"/>
@@ -8724,16 +8724,16 @@
     </row>
     <row r="193" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y193" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z193" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="Z193" s="7" t="s">
+      <c r="AA193" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="AA193" s="7" t="s">
-        <v>625</v>
-      </c>
       <c r="AB193" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC193" s="7">
         <f t="shared" si="2"/>
@@ -8750,16 +8750,16 @@
     </row>
     <row r="194" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y194" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z194" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="Z194" s="7" t="s">
+      <c r="AA194" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="AA194" s="7" t="s">
-        <v>628</v>
-      </c>
       <c r="AB194" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC194" s="7">
         <f t="shared" si="2"/>
@@ -8776,16 +8776,16 @@
     </row>
     <row r="195" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y195" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z195" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="Z195" s="7" t="s">
+      <c r="AA195" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="AA195" s="7" t="s">
-        <v>631</v>
-      </c>
       <c r="AB195" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC195" s="7">
         <f t="shared" si="2"/>
@@ -8802,16 +8802,16 @@
     </row>
     <row r="196" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y196" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z196" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="Z196" s="7" t="s">
+      <c r="AA196" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="AA196" s="7" t="s">
-        <v>634</v>
-      </c>
       <c r="AB196" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC196" s="7">
         <f t="shared" ref="AC196:AC250" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y196,1),""))</f>
@@ -8828,16 +8828,16 @@
     </row>
     <row r="197" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y197" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z197" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="Z197" s="7" t="s">
+      <c r="AA197" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="AA197" s="7" t="s">
-        <v>637</v>
-      </c>
       <c r="AB197" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC197" s="7">
         <f t="shared" si="3"/>
@@ -8854,16 +8854,16 @@
     </row>
     <row r="198" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y198" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z198" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="Z198" s="7" t="s">
+      <c r="AA198" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="AA198" s="7" t="s">
-        <v>640</v>
-      </c>
       <c r="AB198" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC198" s="7">
         <f t="shared" si="3"/>
@@ -8880,16 +8880,16 @@
     </row>
     <row r="199" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y199" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z199" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="Z199" s="7" t="s">
+      <c r="AA199" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="AA199" s="7" t="s">
-        <v>643</v>
-      </c>
       <c r="AB199" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC199" s="7">
         <f t="shared" si="3"/>
@@ -8906,16 +8906,16 @@
     </row>
     <row r="200" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y200" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z200" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="Z200" s="7" t="s">
+      <c r="AA200" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="AA200" s="7" t="s">
-        <v>646</v>
-      </c>
       <c r="AB200" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC200" s="7">
         <f t="shared" si="3"/>
@@ -8932,16 +8932,16 @@
     </row>
     <row r="201" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y201" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z201" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="Z201" s="7" t="s">
+      <c r="AA201" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="AA201" s="7" t="s">
-        <v>649</v>
-      </c>
       <c r="AB201" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC201" s="7">
         <f t="shared" si="3"/>
@@ -8958,16 +8958,16 @@
     </row>
     <row r="202" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y202" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z202" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="Z202" s="7" t="s">
+      <c r="AA202" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="AA202" s="7" t="s">
-        <v>652</v>
-      </c>
       <c r="AB202" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC202" s="7">
         <f t="shared" si="3"/>
@@ -8984,16 +8984,16 @@
     </row>
     <row r="203" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y203" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z203" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="Z203" s="7" t="s">
+      <c r="AA203" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="AA203" s="7" t="s">
-        <v>655</v>
-      </c>
       <c r="AB203" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC203" s="7">
         <f t="shared" si="3"/>
@@ -9010,16 +9010,16 @@
     </row>
     <row r="204" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y204" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z204" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="Z204" s="7" t="s">
+      <c r="AA204" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="AA204" s="7" t="s">
-        <v>658</v>
-      </c>
       <c r="AB204" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC204" s="7">
         <f t="shared" si="3"/>
@@ -9036,16 +9036,16 @@
     </row>
     <row r="205" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y205" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z205" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="Z205" s="7" t="s">
+      <c r="AA205" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="AA205" s="7" t="s">
-        <v>661</v>
-      </c>
       <c r="AB205" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC205" s="7">
         <f t="shared" si="3"/>
@@ -9062,16 +9062,16 @@
     </row>
     <row r="206" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y206" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z206" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="Z206" s="7" t="s">
+      <c r="AA206" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="AA206" s="7" t="s">
-        <v>664</v>
-      </c>
       <c r="AB206" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC206" s="7">
         <f t="shared" si="3"/>
@@ -9088,16 +9088,16 @@
     </row>
     <row r="207" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y207" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="Z207" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="Z207" s="7" t="s">
+      <c r="AA207" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="AA207" s="7" t="s">
-        <v>667</v>
-      </c>
       <c r="AB207" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC207" s="7">
         <f t="shared" si="3"/>
@@ -9114,16 +9114,16 @@
     </row>
     <row r="208" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y208" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z208" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="Z208" s="7" t="s">
+      <c r="AA208" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="AA208" s="7" t="s">
-        <v>670</v>
-      </c>
       <c r="AB208" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC208" s="7">
         <f t="shared" si="3"/>
@@ -9140,16 +9140,16 @@
     </row>
     <row r="209" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y209" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z209" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="Z209" s="7" t="s">
+      <c r="AA209" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="AA209" s="7" t="s">
-        <v>673</v>
-      </c>
       <c r="AB209" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC209" s="7">
         <f t="shared" si="3"/>
@@ -9166,16 +9166,16 @@
     </row>
     <row r="210" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y210" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z210" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="Z210" s="7" t="s">
+      <c r="AA210" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="AA210" s="7" t="s">
-        <v>676</v>
-      </c>
       <c r="AB210" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC210" s="7">
         <f t="shared" si="3"/>
@@ -9192,16 +9192,16 @@
     </row>
     <row r="211" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y211" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z211" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="Z211" s="7" t="s">
+      <c r="AA211" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="AA211" s="7" t="s">
-        <v>679</v>
-      </c>
       <c r="AB211" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC211" s="7">
         <f t="shared" si="3"/>
@@ -9218,16 +9218,16 @@
     </row>
     <row r="212" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y212" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z212" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="Z212" s="7" t="s">
+      <c r="AA212" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="AA212" s="7" t="s">
-        <v>682</v>
-      </c>
       <c r="AB212" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC212" s="7">
         <f t="shared" si="3"/>
@@ -9244,16 +9244,16 @@
     </row>
     <row r="213" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y213" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z213" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA213" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="AA213" s="7" t="s">
+      <c r="AB213" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="AB213" s="7" t="s">
-        <v>685</v>
       </c>
       <c r="AC213" s="7">
         <f t="shared" si="3"/>
@@ -9270,16 +9270,16 @@
     </row>
     <row r="214" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y214" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z214" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="AA214" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="AA214" s="7" t="s">
-        <v>687</v>
-      </c>
       <c r="AB214" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC214" s="7">
         <f t="shared" si="3"/>
@@ -9296,16 +9296,16 @@
     </row>
     <row r="215" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y215" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z215" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA215" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="AA215" s="7" t="s">
-        <v>689</v>
-      </c>
       <c r="AB215" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC215" s="7">
         <f t="shared" si="3"/>
@@ -9322,16 +9322,16 @@
     </row>
     <row r="216" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y216" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z216" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA216" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="AA216" s="7" t="s">
-        <v>691</v>
-      </c>
       <c r="AB216" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC216" s="7">
         <f t="shared" si="3"/>
@@ -9348,16 +9348,16 @@
     </row>
     <row r="217" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y217" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z217" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA217" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="AA217" s="7" t="s">
-        <v>693</v>
-      </c>
       <c r="AB217" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC217" s="7">
         <f t="shared" si="3"/>
@@ -9374,16 +9374,16 @@
     </row>
     <row r="218" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y218" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z218" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA218" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="AA218" s="7" t="s">
-        <v>695</v>
-      </c>
       <c r="AB218" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC218" s="7">
         <f t="shared" si="3"/>
@@ -9400,16 +9400,16 @@
     </row>
     <row r="219" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y219" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z219" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA219" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="AA219" s="7" t="s">
-        <v>697</v>
-      </c>
       <c r="AB219" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC219" s="7">
         <f t="shared" si="3"/>
@@ -9426,16 +9426,16 @@
     </row>
     <row r="220" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y220" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z220" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA220" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="AA220" s="7" t="s">
-        <v>699</v>
-      </c>
       <c r="AB220" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC220" s="7">
         <f t="shared" si="3"/>
@@ -9452,16 +9452,16 @@
     </row>
     <row r="221" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y221" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z221" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA221" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="AA221" s="7" t="s">
-        <v>701</v>
-      </c>
       <c r="AB221" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC221" s="7">
         <f t="shared" si="3"/>
@@ -9478,16 +9478,16 @@
     </row>
     <row r="222" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y222" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z222" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA222" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="AA222" s="7" t="s">
-        <v>703</v>
-      </c>
       <c r="AB222" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC222" s="7">
         <f t="shared" si="3"/>
@@ -9504,16 +9504,16 @@
     </row>
     <row r="223" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y223" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z223" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA223" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="AA223" s="7" t="s">
-        <v>705</v>
-      </c>
       <c r="AB223" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC223" s="7">
         <f t="shared" si="3"/>
@@ -9530,16 +9530,16 @@
     </row>
     <row r="224" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y224" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z224" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA224" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="AA224" s="7" t="s">
+      <c r="AB224" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="AB224" s="7" t="s">
-        <v>708</v>
       </c>
       <c r="AC224" s="7">
         <f t="shared" si="3"/>
@@ -9556,16 +9556,16 @@
     </row>
     <row r="225" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y225" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z225" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA225" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="AA225" s="7" t="s">
-        <v>710</v>
-      </c>
       <c r="AB225" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC225" s="7">
         <f t="shared" si="3"/>
@@ -9582,16 +9582,16 @@
     </row>
     <row r="226" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y226" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z226" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="AA226" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="AA226" s="7" t="s">
-        <v>712</v>
-      </c>
       <c r="AB226" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC226" s="7">
         <f t="shared" si="3"/>
@@ -9608,16 +9608,16 @@
     </row>
     <row r="227" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y227" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="Z227" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="Z227" s="7" t="s">
+      <c r="AA227" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="AA227" s="7" t="s">
-        <v>715</v>
-      </c>
       <c r="AB227" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC227" s="7">
         <f t="shared" si="3"/>
@@ -9634,16 +9634,16 @@
     </row>
     <row r="228" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y228" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z228" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA228" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="AA228" s="7" t="s">
-        <v>717</v>
-      </c>
       <c r="AB228" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC228" s="7">
         <f t="shared" si="3"/>
@@ -9660,16 +9660,16 @@
     </row>
     <row r="229" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y229" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z229" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA229" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="AA229" s="7" t="s">
-        <v>719</v>
-      </c>
       <c r="AB229" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC229" s="7">
         <f t="shared" si="3"/>
@@ -9686,16 +9686,16 @@
     </row>
     <row r="230" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y230" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z230" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA230" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="AA230" s="7" t="s">
-        <v>721</v>
-      </c>
       <c r="AB230" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC230" s="7">
         <f t="shared" si="3"/>
@@ -9712,16 +9712,16 @@
     </row>
     <row r="231" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y231" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z231" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA231" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="AA231" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="AB231" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC231" s="7">
         <f t="shared" si="3"/>
@@ -9738,16 +9738,16 @@
     </row>
     <row r="232" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y232" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z232" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="AA232" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="AA232" s="7" t="s">
-        <v>725</v>
-      </c>
       <c r="AB232" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC232" s="7">
         <f t="shared" si="3"/>
@@ -9764,16 +9764,16 @@
     </row>
     <row r="233" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y233" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z233" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA233" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="AA233" s="7" t="s">
-        <v>727</v>
-      </c>
       <c r="AB233" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC233" s="7">
         <f t="shared" si="3"/>
@@ -9790,16 +9790,16 @@
     </row>
     <row r="234" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y234" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z234" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA234" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="AA234" s="7" t="s">
-        <v>729</v>
-      </c>
       <c r="AB234" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC234" s="7">
         <f t="shared" si="3"/>
@@ -9816,16 +9816,16 @@
     </row>
     <row r="235" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y235" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z235" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA235" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="AA235" s="7" t="s">
-        <v>731</v>
-      </c>
       <c r="AB235" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC235" s="7">
         <f t="shared" si="3"/>
@@ -9842,16 +9842,16 @@
     </row>
     <row r="236" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y236" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z236" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA236" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="AA236" s="7" t="s">
-        <v>733</v>
-      </c>
       <c r="AB236" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC236" s="7">
         <f t="shared" si="3"/>
@@ -9868,16 +9868,16 @@
     </row>
     <row r="237" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y237" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z237" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA237" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="AA237" s="7" t="s">
-        <v>735</v>
-      </c>
       <c r="AB237" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC237" s="7">
         <f t="shared" si="3"/>
@@ -9894,16 +9894,16 @@
     </row>
     <row r="238" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y238" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z238" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA238" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="AA238" s="7" t="s">
-        <v>737</v>
-      </c>
       <c r="AB238" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC238" s="7">
         <f t="shared" si="3"/>
@@ -9920,16 +9920,16 @@
     </row>
     <row r="239" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y239" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z239" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA239" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="AA239" s="7" t="s">
-        <v>739</v>
-      </c>
       <c r="AB239" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC239" s="7">
         <f t="shared" si="3"/>
@@ -9946,16 +9946,16 @@
     </row>
     <row r="240" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y240" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z240" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="Z240" s="7" t="s">
+      <c r="AA240" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="AA240" s="7" t="s">
-        <v>742</v>
-      </c>
       <c r="AB240" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC240" s="7">
         <f t="shared" si="3"/>
@@ -9972,16 +9972,16 @@
     </row>
     <row r="241" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y241" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z241" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="AA241" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="AA241" s="7" t="s">
-        <v>744</v>
-      </c>
       <c r="AB241" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC241" s="7">
         <f t="shared" si="3"/>
@@ -9998,16 +9998,16 @@
     </row>
     <row r="242" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y242" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z242" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="AA242" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="AA242" s="7" t="s">
-        <v>746</v>
-      </c>
       <c r="AB242" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC242" s="7">
         <f t="shared" si="3"/>
@@ -10024,16 +10024,16 @@
     </row>
     <row r="243" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y243" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z243" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="AA243" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="AA243" s="7" t="s">
-        <v>748</v>
-      </c>
       <c r="AB243" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC243" s="7">
         <f t="shared" si="3"/>
@@ -10050,16 +10050,16 @@
     </row>
     <row r="244" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y244" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z244" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="AA244" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="AA244" s="7" t="s">
-        <v>750</v>
-      </c>
       <c r="AB244" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC244" s="7">
         <f t="shared" si="3"/>
@@ -10076,16 +10076,16 @@
     </row>
     <row r="245" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y245" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z245" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA245" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="AA245" s="7" t="s">
-        <v>752</v>
-      </c>
       <c r="AB245" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC245" s="7">
         <f t="shared" si="3"/>
@@ -10102,16 +10102,16 @@
     </row>
     <row r="246" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y246" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z246" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA246" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="AA246" s="7" t="s">
-        <v>754</v>
-      </c>
       <c r="AB246" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC246" s="7">
         <f t="shared" si="3"/>
@@ -10128,16 +10128,16 @@
     </row>
     <row r="247" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y247" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z247" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="AA247" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="AA247" s="7" t="s">
-        <v>756</v>
-      </c>
       <c r="AB247" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC247" s="7">
         <f t="shared" si="3"/>
@@ -10154,16 +10154,16 @@
     </row>
     <row r="248" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y248" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z248" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA248" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="AA248" s="7" t="s">
-        <v>758</v>
-      </c>
       <c r="AB248" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC248" s="7">
         <f t="shared" si="3"/>
@@ -10180,16 +10180,16 @@
     </row>
     <row r="249" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y249" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z249" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="AA249" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="AA249" s="7" t="s">
-        <v>760</v>
-      </c>
       <c r="AB249" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC249" s="7">
         <f t="shared" si="3"/>
@@ -10206,16 +10206,16 @@
     </row>
     <row r="250" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y250" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z250" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA250" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="AA250" s="7" t="s">
-        <v>762</v>
-      </c>
       <c r="AB250" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC250" s="7">
         <f t="shared" si="3"/>
@@ -10231,14 +10231,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fO6q0Yu2FzpEogxOyELGBQltW7BMuPwxkbRJZ/V5/WC32ra8zMi0Bv7u1y4UbEavwU/qBKvT1qidPD/KGuCS4w==" saltValue="c3cPoRh7DaTsQmBOyxE2wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g+MFyMYcVRb72H9x2VavAEHi1JHM42POFoG0m8eigPGldSVWzkqTnhxpMmMda2/p/b9QJPgSPwJmISb5hIew1w==" saltValue="UXlpmoxH01zrr6L4YpUNxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="F13:G14"/>
     <mergeCell ref="D15:G15"/>
@@ -10246,10 +10240,20 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G10">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+      <formula1>YEAR(TODAY())-5</formula1>
+      <formula2>YEAR(TODAY())-1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10313,8 +10317,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10338,36 +10342,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>774</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="B2" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="16" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
@@ -10423,22 +10427,22 @@
     </row>
     <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D7" s="50" t="s">
+        <v>779</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>780</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>782</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>783</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>784</v>
       </c>
       <c r="N7" s="16"/>
     </row>
@@ -10472,7 +10476,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -10485,7 +10489,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>5</v>
+        <v>796</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -10497,7 +10501,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -10509,7 +10513,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -10521,7 +10525,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -10533,7 +10537,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -10541,7 +10545,7 @@
       <c r="G15" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ys73xpbYcj9ny2R+T9BhiXLE6JTQwXNNTv0+Bdulxh/y3jLOKuqcqPkj3hxIKFe3Mzgs3j24jww+CHASK3WyxQ==" saltValue="4SzlIW9D1I3YMFqLi8VaHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3bssjdG/rr6FLnc2WPkIaGOyvV52kzO1n0DF83X3rUJW39BC1BgtkBbiroxg+K0/GoTExcspLkh2CZsfFETrxw==" saltValue="HfviiABOh0IrOd9aENWxaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F7:F8"/>
@@ -10567,15 +10571,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB51"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.53515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.84375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.23046875" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.3828125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.3828125" style="1" customWidth="1"/>
@@ -10590,15 +10594,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -10608,15 +10612,15 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="2:28" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>775</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -10686,16 +10690,16 @@
     </row>
     <row r="6" spans="2:28" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
@@ -10713,10 +10717,10 @@
       <c r="C7" s="55"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -10734,13 +10738,13 @@
       <c r="D8" s="59"/>
       <c r="E8" s="49"/>
       <c r="F8" s="36" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -10763,12 +10767,12 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
     </row>
-    <row r="9" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -10795,12 +10799,12 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -10827,12 +10831,12 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
     </row>
-    <row r="11" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="10">
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -10859,12 +10863,12 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10">
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -10891,12 +10895,12 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
     </row>
-    <row r="13" spans="2:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="10">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -10923,12 +10927,12 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
     </row>
-    <row r="14" spans="2:28" ht="14.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="10">
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -11515,7 +11519,7 @@
     </row>
     <row r="51" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g00QE49gOliku2bMG1bezHIj6TLrIH/WF3VcrjG4lblgqaeGZPFvleHieDc1PsG6yJ5wWRnIcKXjL9R343V5uw==" saltValue="eqGK0CDzEoDGpOeZD2w9jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g8yatD6jHzaol5zZjgidqQ2XRlq6JQk8KSeNQ1GWJPcnoXkR9bEjhehFLzg6zCOHS2un/wNbXb1uBo0BKVXpBg==" saltValue="ONqXL4RT1fLP0W9n1hIqpw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -11540,8 +11544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M1:O1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11565,36 +11569,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>774</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="B2" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="16" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
@@ -11650,13 +11654,13 @@
     </row>
     <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
@@ -11676,10 +11680,10 @@
       <c r="B9" s="71"/>
       <c r="C9" s="71"/>
       <c r="D9" s="53" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F9" s="68"/>
       <c r="G9" s="69"/>
@@ -11693,13 +11697,13 @@
       <c r="C10" s="72"/>
       <c r="D10" s="54"/>
       <c r="E10" s="37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="N10" s="16"/>
     </row>
@@ -11720,7 +11724,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -11732,7 +11736,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>5</v>
+        <v>796</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -11744,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -11756,7 +11760,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -11768,7 +11772,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -11780,7 +11784,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -11788,7 +11792,7 @@
       <c r="G17" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p0SUYCl5CzoXmioTOq//ZzBD7qWCF8Gq4UxXiIV4glM0JAc3VMMsXC5C81rk/Lb2k1uQurepUJSz4V3qIqiJ2Q==" saltValue="/SZS1aXX8PIJOIN1x+SQvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OmxCVqoYOUfqIP76Xu/xkUvD45IjvO+oBzZIL5g5nM9Hxc02dbrezUiBlc/zVwgIpRuy1LdttCbfjCwzxqjxaA==" saltValue="gZOu6E23vv9lNH+QtB6FHA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="D9:D10"/>
